--- a/results/stars_with_bright_neighbors.xlsx
+++ b/results/stars_with_bright_neighbors.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +50,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +75,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,9 +438,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC111"/>
+  <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -454,14 +467,14 @@
     <col width="30" customWidth="1" min="18" max="18"/>
     <col width="22" customWidth="1" min="19" max="19"/>
     <col width="11" customWidth="1" min="20" max="20"/>
-    <col width="15" customWidth="1" min="21" max="21"/>
+    <col width="20" customWidth="1" min="21" max="21"/>
     <col width="23" customWidth="1" min="22" max="22"/>
     <col width="11" customWidth="1" min="23" max="23"/>
     <col width="12" customWidth="1" min="24" max="24"/>
     <col width="13" customWidth="1" min="25" max="25"/>
     <col width="26" customWidth="1" min="26" max="26"/>
     <col width="22" customWidth="1" min="27" max="27"/>
-    <col width="24" customWidth="1" min="28" max="28"/>
+    <col width="39" customWidth="1" min="28" max="28"/>
     <col width="41" customWidth="1" min="29" max="29"/>
   </cols>
   <sheetData>
@@ -568,7 +581,7 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Spectral Type</t>
+          <t>Gaia Spectral type</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
@@ -603,7 +616,7 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Readable Spectral Type</t>
+          <t>Readable Spectral Type (experimental)</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
@@ -689,11 +702,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC2" t="n">
         <v>3.76070686720166</v>
       </c>
@@ -986,6 +994,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>K7V</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>K7V</t>
+        </is>
+      </c>
       <c r="AC5" t="n">
         <v>2.387732103876461</v>
       </c>
@@ -998,7 +1016,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1462061709996744448</t>
+          <t>1462061709995883136</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1082,6 +1100,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>K5V</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>K5V</t>
+        </is>
+      </c>
       <c r="AC6" t="n">
         <v>2.082984487267166</v>
       </c>
@@ -1094,7 +1122,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1462061709995883136</t>
+          <t>1462061709996744448</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1178,6 +1206,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>K5V</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>K5V</t>
+        </is>
+      </c>
       <c r="AC7" t="n">
         <v>2.082984487267166</v>
       </c>
@@ -1352,11 +1390,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC9" t="n">
         <v>5.436033626913543</v>
       </c>
@@ -1438,11 +1471,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC10" t="n">
         <v>5.636926579250206</v>
       </c>
@@ -1622,11 +1650,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC12" t="n">
         <v>5.325550859154722</v>
       </c>
@@ -1639,7 +1662,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3894474759723667200</t>
+          <t>3894474755427985408</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1713,11 +1736,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC13" t="n">
         <v>3.606810980634767</v>
       </c>
@@ -1730,7 +1748,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3894474755427985408</t>
+          <t>3894474759723667200</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1804,11 +1822,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC14" t="n">
         <v>3.606810980634767</v>
       </c>
@@ -1890,11 +1903,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC15" t="n">
         <v>4.584220658809554</v>
       </c>
@@ -1976,11 +1984,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC16" t="n">
         <v>5.674837690043429</v>
       </c>
@@ -2062,11 +2065,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC17" t="n">
         <v>4.903217012235717</v>
       </c>
@@ -2148,11 +2146,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC18" t="n">
         <v>4.903217012235717</v>
       </c>
@@ -2273,7 +2266,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4207995002827396224</t>
+          <t>4207995002838460800</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2357,6 +2350,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>K3/4(V)</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>K3/4</t>
+        </is>
+      </c>
       <c r="AC20" t="n">
         <v>3.49181910542926</v>
       </c>
@@ -2369,7 +2372,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4207995002838460800</t>
+          <t>4207995002827396224</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2453,6 +2456,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>K3/4(V)</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>K3/4</t>
+        </is>
+      </c>
       <c r="AC21" t="n">
         <v>3.49181910542926</v>
       </c>
@@ -2539,11 +2552,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC22" t="n">
         <v>5.116668160914217</v>
       </c>
@@ -2645,6 +2653,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>K3V</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>K3V</t>
+        </is>
+      </c>
       <c r="AC23" t="n">
         <v>3.003771315435658</v>
       </c>
@@ -2746,6 +2764,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>K3V</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>K3V</t>
+        </is>
+      </c>
       <c r="AC24" t="n">
         <v>3.003771315435658</v>
       </c>
@@ -2842,6 +2870,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>K4V</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>K4V</t>
+        </is>
+      </c>
       <c r="AC25" t="n">
         <v>3.71388206800441</v>
       </c>
@@ -3076,7 +3114,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3662657851291101824</t>
+          <t>3662657851291871104</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3150,11 +3188,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC28" t="n">
         <v>2.357966348918407</v>
       </c>
@@ -3167,7 +3200,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3662657851291871104</t>
+          <t>3662657851291101824</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3241,11 +3274,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC29" t="n">
         <v>2.357966348918407</v>
       </c>
@@ -3332,11 +3360,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC30" t="n">
         <v>2.990555290245194</v>
       </c>
@@ -3423,11 +3446,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC31" t="n">
         <v>3.588151379324852</v>
       </c>
@@ -3514,11 +3532,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC32" t="n">
         <v>3.588151379324852</v>
       </c>
@@ -3590,11 +3603,6 @@
           <t>K</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC33" t="n">
         <v>4.629312943731323</v>
       </c>
@@ -3691,6 +3699,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>K4V</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>K4V</t>
+        </is>
+      </c>
       <c r="AC34" t="n">
         <v>2.177884924618581</v>
       </c>
@@ -3787,6 +3805,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>K4V</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>K4V</t>
+        </is>
+      </c>
       <c r="AC35" t="n">
         <v>2.177884924618581</v>
       </c>
@@ -3873,11 +3901,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC36" t="n">
         <v>3.605746053603552</v>
       </c>
@@ -3964,11 +3987,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC37" t="n">
         <v>3.605746053603552</v>
       </c>
@@ -3981,7 +3999,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5022972468946212352</t>
+          <t>5022972468944971648</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4044,7 +4062,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5022972468944971648</t>
+          <t>5022972468946212352</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4181,11 +4199,6 @@
           <t>Star</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC40" t="n">
         <v>3.776363751538419</v>
       </c>
@@ -4272,11 +4285,6 @@
           <t>Star</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC41" t="n">
         <v>3.776363751538419</v>
       </c>
@@ -4466,11 +4474,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC43" t="n">
         <v>2.811926623400132</v>
       </c>
@@ -4557,11 +4560,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC44" t="n">
         <v>2.811926623400132</v>
       </c>
@@ -4643,11 +4641,6 @@
           <t>Star</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC45" t="n">
         <v>4.310632398229685</v>
       </c>
@@ -4660,7 +4653,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6516282569985457920</t>
+          <t>6516282565692522880</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4734,11 +4727,6 @@
           <t>Star</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC46" t="n">
         <v>3.937226088503122</v>
       </c>
@@ -4751,7 +4739,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6516282565692522880</t>
+          <t>6516282569985457920</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4825,11 +4813,6 @@
           <t>Star</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC47" t="n">
         <v>3.937226088503122</v>
       </c>
@@ -5128,11 +5111,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC50" t="n">
         <v>2.573940246150217</v>
       </c>
@@ -5219,11 +5197,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC51" t="n">
         <v>2.573940246150217</v>
       </c>
@@ -5310,11 +5283,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC52" t="n">
         <v>3.935452379726642</v>
       </c>
@@ -5401,11 +5369,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC53" t="n">
         <v>3.935452379726642</v>
       </c>
@@ -5990,11 +5953,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC60" t="n">
         <v>4.041957752406481</v>
       </c>
@@ -6081,11 +6039,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC61" t="n">
         <v>4.041957752406481</v>
       </c>
@@ -6360,7 +6313,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6298476252895259520</t>
+          <t>6298476051032199936</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6438,7 +6391,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6298476051032199936</t>
+          <t>6298476252895259520</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6516,7 +6469,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4187404036259094528</t>
+          <t>4187404036266621952</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6579,7 +6532,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4187404036266621952</t>
+          <t>4187404036259094528</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -6723,6 +6676,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>G3V</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>G3V</t>
+        </is>
+      </c>
       <c r="AC70" t="n">
         <v>3.002938208669973</v>
       </c>
@@ -6809,11 +6772,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC71" t="n">
         <v>4.247190854632139</v>
       </c>
@@ -6900,11 +6858,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC72" t="n">
         <v>4.247190854632139</v>
       </c>
@@ -6991,11 +6944,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC73" t="n">
         <v>3.82304797816225</v>
       </c>
@@ -7082,11 +7030,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC74" t="n">
         <v>3.82304797816225</v>
       </c>
@@ -7094,37 +7037,37 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>4367026096925086464</t>
+          <t>4367026096927711104</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>4367026096925086464</t>
+          <t>4367026096927711104</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>260.7213901891552</v>
+        <v>260.7211862464831</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.400003008904827</v>
+        <v>-2.400001939421211</v>
       </c>
       <c r="F75" t="n">
-        <v>12.22139053729057</v>
+        <v>12.19185947054863</v>
       </c>
       <c r="G75" t="n">
-        <v>11.73600482940674</v>
+        <v>11.72702884674072</v>
       </c>
       <c r="H75" t="n">
-        <v>12.48750686645508</v>
+        <v>12.45837116241455</v>
       </c>
       <c r="I75" t="n">
-        <v>9.919554710388184</v>
+        <v>9.874534606933594</v>
       </c>
       <c r="J75" t="n">
-        <v>2.567952156066895</v>
+        <v>2.583836555480957</v>
       </c>
       <c r="K75" t="n">
-        <v>51.04305528202596</v>
+        <v>50.98761649833325</v>
       </c>
       <c r="L75" t="n">
         <v>5623.413251903491</v>
@@ -7136,7 +7079,7 @@
         <v>1.357775515699373</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.169010678153214</v>
+        <v>2.13971276079469</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
@@ -7145,7 +7088,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>HD 157347C</t>
+          <t>HD 157347B</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
@@ -7157,37 +7100,37 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>4367026096927711104</t>
+          <t>4367026096925086464</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>4367026096927711104</t>
+          <t>4367026096925086464</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>260.7211862464831</v>
+        <v>260.7213901891552</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.400001939421211</v>
+        <v>-2.400003008904827</v>
       </c>
       <c r="F76" t="n">
-        <v>12.19185947054863</v>
+        <v>12.22139053729057</v>
       </c>
       <c r="G76" t="n">
-        <v>11.72702884674072</v>
+        <v>11.73600482940674</v>
       </c>
       <c r="H76" t="n">
-        <v>12.45837116241455</v>
+        <v>12.48750686645508</v>
       </c>
       <c r="I76" t="n">
-        <v>9.874534606933594</v>
+        <v>9.919554710388184</v>
       </c>
       <c r="J76" t="n">
-        <v>2.583836555480957</v>
+        <v>2.567952156066895</v>
       </c>
       <c r="K76" t="n">
-        <v>50.98761649833325</v>
+        <v>51.04305528202596</v>
       </c>
       <c r="L76" t="n">
         <v>5623.413251903491</v>
@@ -7199,7 +7142,7 @@
         <v>1.357775515699373</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.13971276079469</v>
+        <v>2.169010678153214</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7208,7 +7151,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>HD 157347B</t>
+          <t>HD 157347C</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
@@ -7225,7 +7168,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2624387200116495872</t>
+          <t>2624387195821278592</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -7296,6 +7239,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
       <c r="AC77" t="n">
         <v>2.787495097063817</v>
       </c>
@@ -7308,7 +7261,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2624387195821278592</t>
+          <t>2624387200116495872</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -7379,6 +7332,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
       <c r="AC78" t="n">
         <v>2.787495097063817</v>
       </c>
@@ -7528,11 +7491,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC80" t="n">
         <v>3.619065012371522</v>
       </c>
@@ -7619,11 +7577,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC81" t="n">
         <v>3.764985604931325</v>
       </c>
@@ -7710,11 +7663,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC82" t="n">
         <v>3.764985604931325</v>
       </c>
@@ -7961,7 +7909,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1174513645233715584</t>
+          <t>1174513645237833984</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -8040,6 +7988,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>G1V</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>G1V</t>
+        </is>
+      </c>
       <c r="AC86" t="n">
         <v>3.808742063382882</v>
       </c>
@@ -8052,7 +8010,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1174513645237833984</t>
+          <t>1174513645233715584</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -8131,6 +8089,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>G1V</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>G1V</t>
+        </is>
+      </c>
       <c r="AC87" t="n">
         <v>3.808742063382882</v>
       </c>
@@ -8217,11 +8185,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC88" t="n">
         <v>3.659738521997601</v>
       </c>
@@ -8308,11 +8271,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z89" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC89" t="n">
         <v>3.659738521997601</v>
       </c>
@@ -8325,7 +8283,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2739059700184753280</t>
+          <t>2739059700183271424</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -8346,13 +8304,7 @@
         <v>8.972273826599121</v>
       </c>
       <c r="H90" t="n">
-        <v>7.462995529174805</v>
-      </c>
-      <c r="I90" t="n">
-        <v>6.632507801055908</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.8304877281188965</v>
+        <v>7.701591491699219</v>
       </c>
       <c r="K90" t="n">
         <v>23.30923025364912</v>
@@ -8388,7 +8340,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2739059700183271424</t>
+          <t>2739059700184753280</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -8409,7 +8361,13 @@
         <v>8.972273826599121</v>
       </c>
       <c r="H91" t="n">
-        <v>7.701591491699219</v>
+        <v>7.462995529174805</v>
+      </c>
+      <c r="I91" t="n">
+        <v>6.632507801055908</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.8304877281188965</v>
       </c>
       <c r="K91" t="n">
         <v>23.30923025364912</v>
@@ -8524,6 +8482,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>F8V</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>F8V</t>
+        </is>
+      </c>
       <c r="AC92" t="n">
         <v>3.931765748319993</v>
       </c>
@@ -8615,6 +8583,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA93" t="inlineStr">
+        <is>
+          <t>F8V</t>
+        </is>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>F8V</t>
+        </is>
+      </c>
       <c r="AC93" t="n">
         <v>3.931765748319993</v>
       </c>
@@ -9083,7 +9061,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1271209615518148736</t>
+          <t>1271209611223823232</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -9157,11 +9135,6 @@
           <t>**</t>
         </is>
       </c>
-      <c r="Z101" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC101" t="n">
         <v>6.670646616107961</v>
       </c>
@@ -9174,7 +9147,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1271209611223823232</t>
+          <t>1271209615518148736</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -9248,11 +9221,6 @@
           <t>**</t>
         </is>
       </c>
-      <c r="Z102" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC102" t="n">
         <v>6.670646616107961</v>
       </c>
@@ -9344,6 +9312,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA103" t="inlineStr">
+        <is>
+          <t>G2Ve:</t>
+        </is>
+      </c>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
       <c r="AC103" t="n">
         <v>6.883095059612176</v>
       </c>
@@ -9435,6 +9413,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA104" t="inlineStr">
+        <is>
+          <t>G2Ve:</t>
+        </is>
+      </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
       <c r="AC104" t="n">
         <v>6.883095059612176</v>
       </c>
@@ -9552,7 +9540,7 @@
         <v>6081</v>
       </c>
       <c r="M106" t="n">
-        <v>1.385</v>
+        <v>1.36</v>
       </c>
       <c r="N106" t="n">
         <v>4.50793</v>
@@ -9567,10 +9555,10 @@
         <v>0.4967385441251804</v>
       </c>
       <c r="R106" t="n">
-        <v>10.95440909986255</v>
+        <v>10.8550935494895</v>
       </c>
       <c r="S106" t="n">
-        <v>0.3901334043609646</v>
+        <v>0.3830912851486728</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
@@ -9608,7 +9596,7 @@
         </is>
       </c>
       <c r="AC106" t="n">
-        <v>10.95427907393568</v>
+        <v>10.85496352355556</v>
       </c>
     </row>
     <row r="107">
@@ -9707,7 +9695,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>3028617461760208128</t>
+          <t>3028617457455184768</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -9780,7 +9768,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>3028617457455184768</t>
+          <t>3028617461760208128</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -9971,7 +9959,133 @@
         </is>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>5468409364073657856</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>5468409364073657856</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>5468409364073657856</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>159.0184347622677</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-26.67561364221422</v>
+      </c>
+      <c r="F112" t="n">
+        <v>7.597651481628418</v>
+      </c>
+      <c r="G112" t="n">
+        <v>7.597651481628418</v>
+      </c>
+      <c r="H112" t="n">
+        <v>7.402126312255859</v>
+      </c>
+      <c r="I112" t="n">
+        <v>6.536417007446289</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.8657093048095703</v>
+      </c>
+      <c r="K112" t="n">
+        <v>23.0878013088207</v>
+      </c>
+      <c r="L112" t="n">
+        <v>6309.572752037223</v>
+      </c>
+      <c r="N112" t="n">
+        <v>5.011872688453599</v>
+      </c>
+      <c r="P112" t="n">
+        <v>2.916646170327004</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>2.684221237357704</v>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>HD  91881B</t>
+        </is>
+      </c>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>5468409364073657856</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>5468409368370405888</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>5468409364073657856</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>159.0184347622677</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-26.67561364221422</v>
+      </c>
+      <c r="F113" t="n">
+        <v>7.597651481628418</v>
+      </c>
+      <c r="G113" t="n">
+        <v>7.597651481628418</v>
+      </c>
+      <c r="H113" t="n">
+        <v>7.402126312255859</v>
+      </c>
+      <c r="I113" t="n">
+        <v>6.536417007446289</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.8657093048095703</v>
+      </c>
+      <c r="K113" t="n">
+        <v>23.0878013088207</v>
+      </c>
+      <c r="L113" t="n">
+        <v>6309.572752037223</v>
+      </c>
+      <c r="N113" t="n">
+        <v>5.011872688453599</v>
+      </c>
+      <c r="P113" t="n">
+        <v>2.916646170327004</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>2.684221237357704</v>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>HD  91881B</t>
+        </is>
+      </c>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/stars_with_bright_neighbors.xlsx
+++ b/results/stars_with_bright_neighbors.xlsx
@@ -474,7 +474,7 @@
     <col width="13" customWidth="1" min="25" max="25"/>
     <col width="26" customWidth="1" min="26" max="26"/>
     <col width="22" customWidth="1" min="27" max="27"/>
-    <col width="24" customWidth="1" min="28" max="28"/>
+    <col width="39" customWidth="1" min="28" max="28"/>
     <col width="41" customWidth="1" min="29" max="29"/>
   </cols>
   <sheetData>
@@ -616,7 +616,7 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Readable Spectral Type</t>
+          <t>Readable Spectral Type (experimental)</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
@@ -702,11 +702,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC2" t="n">
         <v>3.76070686720166</v>
       </c>
@@ -999,6 +994,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>K7V</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>K7V</t>
+        </is>
+      </c>
       <c r="AC5" t="n">
         <v>2.387732103876461</v>
       </c>
@@ -1095,6 +1100,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>K5V</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>K5V</t>
+        </is>
+      </c>
       <c r="AC6" t="n">
         <v>2.082984487267166</v>
       </c>
@@ -1191,6 +1206,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>K5V</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>K5V</t>
+        </is>
+      </c>
       <c r="AC7" t="n">
         <v>2.082984487267166</v>
       </c>
@@ -1365,11 +1390,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC9" t="n">
         <v>5.436033626913552</v>
       </c>
@@ -1451,11 +1471,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC10" t="n">
         <v>5.636926579250191</v>
       </c>
@@ -1635,11 +1650,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC12" t="n">
         <v>5.325550859154713</v>
       </c>
@@ -1726,11 +1736,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC13" t="n">
         <v>3.606810980634767</v>
       </c>
@@ -1817,11 +1822,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC14" t="n">
         <v>3.606810980634767</v>
       </c>
@@ -1903,11 +1903,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC15" t="n">
         <v>4.584220658809547</v>
       </c>
@@ -2130,11 +2125,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC18" t="n">
         <v>5.674837690043433</v>
       </c>
@@ -2216,11 +2206,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC19" t="n">
         <v>4.903217012235717</v>
       </c>
@@ -2302,11 +2287,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC20" t="n">
         <v>4.903217012235717</v>
       </c>
@@ -2511,6 +2491,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>K3/4(V)</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>K3/4</t>
+        </is>
+      </c>
       <c r="AC22" t="n">
         <v>3.49181910542926</v>
       </c>
@@ -2607,6 +2597,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>K3/4(V)</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>K3/4</t>
+        </is>
+      </c>
       <c r="AC23" t="n">
         <v>3.49181910542926</v>
       </c>
@@ -2693,11 +2693,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC24" t="n">
         <v>5.11666816091422</v>
       </c>
@@ -2799,6 +2794,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>K3V</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>K3V</t>
+        </is>
+      </c>
       <c r="AC25" t="n">
         <v>3.003771315435658</v>
       </c>
@@ -2900,6 +2905,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>K3V</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>K3V</t>
+        </is>
+      </c>
       <c r="AC26" t="n">
         <v>3.003771315435658</v>
       </c>
@@ -2996,6 +3011,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>K4V</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>K4V</t>
+        </is>
+      </c>
       <c r="AC27" t="n">
         <v>3.71388206800441</v>
       </c>
@@ -3304,11 +3329,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC30" t="n">
         <v>2.357966348918407</v>
       </c>
@@ -3395,11 +3415,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC31" t="n">
         <v>2.357966348918407</v>
       </c>
@@ -3486,11 +3501,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC32" t="n">
         <v>2.990555290245194</v>
       </c>
@@ -3577,11 +3587,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC33" t="n">
         <v>3.588151379324852</v>
       </c>
@@ -3668,11 +3673,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC34" t="n">
         <v>3.588151379324852</v>
       </c>
@@ -3744,11 +3744,6 @@
           <t>K</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC35" t="n">
         <v>4.629312943731323</v>
       </c>
@@ -3845,6 +3840,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>K4V</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>K4V</t>
+        </is>
+      </c>
       <c r="AC36" t="n">
         <v>2.177884924618581</v>
       </c>
@@ -3941,6 +3946,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>K4V</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>K4V</t>
+        </is>
+      </c>
       <c r="AC37" t="n">
         <v>2.177884924618581</v>
       </c>
@@ -4027,11 +4042,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC38" t="n">
         <v>3.605746053603552</v>
       </c>
@@ -4118,11 +4128,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC39" t="n">
         <v>3.605746053603552</v>
       </c>
@@ -4335,11 +4340,6 @@
           <t>Star</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC42" t="n">
         <v>3.776363751538419</v>
       </c>
@@ -4426,11 +4426,6 @@
           <t>Star</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC43" t="n">
         <v>3.776363751538419</v>
       </c>
@@ -4620,11 +4615,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC45" t="n">
         <v>2.811926623400132</v>
       </c>
@@ -4711,11 +4701,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC46" t="n">
         <v>2.811926623400132</v>
       </c>
@@ -4797,11 +4782,6 @@
           <t>Star</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC47" t="n">
         <v>4.310632398229685</v>
       </c>
@@ -4888,11 +4868,6 @@
           <t>Star</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC48" t="n">
         <v>3.937226088503122</v>
       </c>
@@ -4979,11 +4954,6 @@
           <t>Star</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC49" t="n">
         <v>3.937226088503122</v>
       </c>
@@ -5282,11 +5252,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC52" t="n">
         <v>2.573940246150217</v>
       </c>
@@ -5373,11 +5338,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC53" t="n">
         <v>2.573940246150217</v>
       </c>
@@ -5464,11 +5424,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC54" t="n">
         <v>3.935452379726642</v>
       </c>
@@ -5555,11 +5510,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC55" t="n">
         <v>3.935452379726642</v>
       </c>
@@ -6144,11 +6094,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC62" t="n">
         <v>4.041957752406481</v>
       </c>
@@ -6235,11 +6180,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC63" t="n">
         <v>4.041957752406481</v>
       </c>
@@ -6877,6 +6817,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>G3V</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>G3V</t>
+        </is>
+      </c>
       <c r="AC72" t="n">
         <v>3.002938208669973</v>
       </c>
@@ -6963,11 +6913,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC73" t="n">
         <v>4.247190854632139</v>
       </c>
@@ -7054,11 +6999,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC74" t="n">
         <v>4.247190854632139</v>
       </c>
@@ -7145,11 +7085,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC75" t="n">
         <v>3.82304797816225</v>
       </c>
@@ -7236,11 +7171,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC76" t="n">
         <v>3.82304797816225</v>
       </c>
@@ -7450,6 +7380,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
       <c r="AC79" t="n">
         <v>2.787495097063818</v>
       </c>
@@ -7533,6 +7473,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
       <c r="AC80" t="n">
         <v>2.787495097063818</v>
       </c>
@@ -7682,11 +7632,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC82" t="n">
         <v>3.619065012371522</v>
       </c>
@@ -7773,11 +7718,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC83" t="n">
         <v>3.764985604931325</v>
       </c>
@@ -7864,11 +7804,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z84" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC84" t="n">
         <v>3.764985604931325</v>
       </c>
@@ -8194,6 +8129,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA88" t="inlineStr">
+        <is>
+          <t>G1V</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>G1V</t>
+        </is>
+      </c>
       <c r="AC88" t="n">
         <v>3.808742063382882</v>
       </c>
@@ -8285,6 +8230,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>G1V</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>G1V</t>
+        </is>
+      </c>
       <c r="AC89" t="n">
         <v>3.808742063382882</v>
       </c>
@@ -8371,11 +8326,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z90" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC90" t="n">
         <v>3.6597385219976</v>
       </c>
@@ -8462,11 +8412,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="Z91" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC91" t="n">
         <v>3.6597385219976</v>
       </c>
@@ -8678,6 +8623,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>F8V</t>
+        </is>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>F8V</t>
+        </is>
+      </c>
       <c r="AC94" t="n">
         <v>3.931765748319993</v>
       </c>
@@ -8769,6 +8724,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>F8V</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>F8V</t>
+        </is>
+      </c>
       <c r="AC95" t="n">
         <v>3.931765748319993</v>
       </c>
@@ -9311,11 +9276,6 @@
           <t>**</t>
         </is>
       </c>
-      <c r="Z103" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC103" t="n">
         <v>6.670646616107961</v>
       </c>
@@ -9402,11 +9362,6 @@
           <t>**</t>
         </is>
       </c>
-      <c r="Z104" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AC104" t="n">
         <v>6.670646616107961</v>
       </c>
@@ -9498,6 +9453,16 @@
           <t>GAIA</t>
         </is>
       </c>
+      <c r="AA105" t="inlineStr">
+        <is>
+          <t>G2Ve:</t>
+        </is>
+      </c>
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
       <c r="AC105" t="n">
         <v>6.883095059612176</v>
       </c>
@@ -9587,6 +9552,16 @@
       <c r="Z106" t="inlineStr">
         <is>
           <t>GAIA</t>
+        </is>
+      </c>
+      <c r="AA106" t="inlineStr">
+        <is>
+          <t>G2Ve:</t>
+        </is>
+      </c>
+      <c r="AB106" t="inlineStr">
+        <is>
+          <t>G2V</t>
         </is>
       </c>
       <c r="AC106" t="n">

--- a/results/stars_with_bright_neighbors.xlsx
+++ b/results/stars_with_bright_neighbors.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC115"/>
+  <dimension ref="A1:AB115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -475,7 +475,6 @@
     <col width="26" customWidth="1" min="26" max="26"/>
     <col width="22" customWidth="1" min="27" max="27"/>
     <col width="39" customWidth="1" min="28" max="28"/>
-    <col width="41" customWidth="1" min="29" max="29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -619,11 +618,6 @@
           <t>Readable Spectral Type (experimental)</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>HZ Detection Limit Simplified [M_Earth]</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -702,9 +696,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC2" t="n">
-        <v>3.76070686720166</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -800,9 +791,6 @@
           <t>M0V</t>
         </is>
       </c>
-      <c r="AC3" t="n">
-        <v>1.995426380109035</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -898,9 +886,6 @@
           <t>M0V</t>
         </is>
       </c>
-      <c r="AC4" t="n">
-        <v>1.995426380109035</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1004,9 +989,6 @@
           <t>K7V</t>
         </is>
       </c>
-      <c r="AC5" t="n">
-        <v>2.387732103876461</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1110,9 +1092,6 @@
           <t>K5V</t>
         </is>
       </c>
-      <c r="AC6" t="n">
-        <v>2.082984487267166</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1216,9 +1195,6 @@
           <t>K5V</t>
         </is>
       </c>
-      <c r="AC7" t="n">
-        <v>2.082984487267166</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1309,9 +1285,6 @@
           <t>K8V</t>
         </is>
       </c>
-      <c r="AC8" t="n">
-        <v>2.018936478640915</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1390,9 +1363,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC9" t="n">
-        <v>5.436033626913552</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1471,9 +1441,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC10" t="n">
-        <v>5.636926579250191</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1569,9 +1536,6 @@
           <t>K4V</t>
         </is>
       </c>
-      <c r="AC11" t="n">
-        <v>5.26449721945573</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1650,9 +1614,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC12" t="n">
-        <v>5.325550859154713</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1736,9 +1697,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC13" t="n">
-        <v>3.606810980634767</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1822,9 +1780,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC14" t="n">
-        <v>3.606810980634767</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1903,9 +1858,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC15" t="n">
-        <v>4.584220658809547</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2125,9 +2077,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC18" t="n">
-        <v>5.674837690043433</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2206,9 +2155,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC19" t="n">
-        <v>4.903217012235717</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2287,9 +2233,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC20" t="n">
-        <v>4.903217012235717</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2395,9 +2338,6 @@
           <t>K5V and K6V</t>
         </is>
       </c>
-      <c r="AC21" t="n">
-        <v>2.546660419599299</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2501,9 +2441,6 @@
           <t>K3/4</t>
         </is>
       </c>
-      <c r="AC22" t="n">
-        <v>3.49181910542926</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2607,9 +2544,6 @@
           <t>K3/4</t>
         </is>
       </c>
-      <c r="AC23" t="n">
-        <v>3.49181910542926</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2693,9 +2627,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC24" t="n">
-        <v>5.11666816091422</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2804,9 +2735,6 @@
           <t>K3V</t>
         </is>
       </c>
-      <c r="AC25" t="n">
-        <v>3.003771315435658</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2915,9 +2843,6 @@
           <t>K3V</t>
         </is>
       </c>
-      <c r="AC26" t="n">
-        <v>3.003771315435658</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3021,9 +2946,6 @@
           <t>K4V</t>
         </is>
       </c>
-      <c r="AC27" t="n">
-        <v>3.71388206800441</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3132,9 +3054,6 @@
           <t>K3V</t>
         </is>
       </c>
-      <c r="AC28" t="n">
-        <v>1.646998975811397</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3243,9 +3162,6 @@
           <t>K3V</t>
         </is>
       </c>
-      <c r="AC29" t="n">
-        <v>1.646998975811397</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3329,9 +3245,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC30" t="n">
-        <v>2.357966348918407</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3415,9 +3328,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC31" t="n">
-        <v>2.357966348918407</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3501,9 +3411,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC32" t="n">
-        <v>2.990555290245194</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3587,9 +3494,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC33" t="n">
-        <v>3.588151379324852</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3673,9 +3577,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC34" t="n">
-        <v>3.588151379324852</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3744,9 +3645,6 @@
           <t>K</t>
         </is>
       </c>
-      <c r="AC35" t="n">
-        <v>4.629312943731323</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3850,9 +3748,6 @@
           <t>K4V</t>
         </is>
       </c>
-      <c r="AC36" t="n">
-        <v>2.177884924618581</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3956,9 +3851,6 @@
           <t>K4V</t>
         </is>
       </c>
-      <c r="AC37" t="n">
-        <v>2.177884924618581</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4042,9 +3934,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC38" t="n">
-        <v>3.605746053603552</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4128,9 +4017,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC39" t="n">
-        <v>3.605746053603552</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4340,9 +4226,6 @@
           <t>Star</t>
         </is>
       </c>
-      <c r="AC42" t="n">
-        <v>3.776363751538419</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4426,9 +4309,6 @@
           <t>Star</t>
         </is>
       </c>
-      <c r="AC43" t="n">
-        <v>3.776363751538419</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4529,9 +4409,6 @@
           <t>K3V</t>
         </is>
       </c>
-      <c r="AC44" t="n">
-        <v>2.843950632192336</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4615,9 +4492,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC45" t="n">
-        <v>2.811926623400132</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4701,9 +4575,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC46" t="n">
-        <v>2.811926623400132</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4782,9 +4653,6 @@
           <t>Star</t>
         </is>
       </c>
-      <c r="AC47" t="n">
-        <v>4.310632398229685</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4868,9 +4736,6 @@
           <t>Star</t>
         </is>
       </c>
-      <c r="AC48" t="n">
-        <v>3.937226088503122</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4954,9 +4819,6 @@
           <t>Star</t>
         </is>
       </c>
-      <c r="AC49" t="n">
-        <v>3.937226088503122</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5060,9 +4922,6 @@
           <t>K2V</t>
         </is>
       </c>
-      <c r="AC50" t="n">
-        <v>1.599643492060173</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5166,9 +5025,6 @@
           <t>K2V</t>
         </is>
       </c>
-      <c r="AC51" t="n">
-        <v>1.599643492060173</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5252,9 +5108,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC52" t="n">
-        <v>2.573940246150217</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5338,9 +5191,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC53" t="n">
-        <v>2.573940246150217</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5424,9 +5274,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC54" t="n">
-        <v>3.935452379726642</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5510,9 +5357,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC55" t="n">
-        <v>3.935452379726642</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5739,9 +5583,6 @@
           <t>K2V</t>
         </is>
       </c>
-      <c r="AC58" t="n">
-        <v>3.285485477349382</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5837,9 +5678,6 @@
           <t>K1V</t>
         </is>
       </c>
-      <c r="AC59" t="n">
-        <v>2.164780507607938</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5935,9 +5773,6 @@
           <t>K1V</t>
         </is>
       </c>
-      <c r="AC60" t="n">
-        <v>2.164780507607938</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6094,9 +5929,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC62" t="n">
-        <v>4.041957752406481</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6180,9 +6012,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC63" t="n">
-        <v>4.041957752406481</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6827,9 +6656,6 @@
           <t>G3V</t>
         </is>
       </c>
-      <c r="AC72" t="n">
-        <v>3.002938208669973</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6913,9 +6739,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC73" t="n">
-        <v>4.247190854632139</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6999,9 +6822,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC74" t="n">
-        <v>4.247190854632139</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7085,9 +6905,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC75" t="n">
-        <v>3.82304797816225</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7171,9 +6988,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC76" t="n">
-        <v>3.82304797816225</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7390,9 +7204,6 @@
           <t>G2V</t>
         </is>
       </c>
-      <c r="AC79" t="n">
-        <v>2.787495097063818</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7483,9 +7294,6 @@
           <t>G2V</t>
         </is>
       </c>
-      <c r="AC80" t="n">
-        <v>2.787495097063818</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7632,9 +7440,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC82" t="n">
-        <v>3.619065012371522</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7718,9 +7523,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC83" t="n">
-        <v>3.764985604931325</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7804,9 +7606,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC84" t="n">
-        <v>3.764985604931325</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7892,9 +7691,6 @@
           <t>G2V</t>
         </is>
       </c>
-      <c r="AC85" t="n">
-        <v>4.205432296499562</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7980,9 +7776,6 @@
           <t>G2V</t>
         </is>
       </c>
-      <c r="AC86" t="n">
-        <v>3.711757085731711</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -8139,9 +7932,6 @@
           <t>G1V</t>
         </is>
       </c>
-      <c r="AC88" t="n">
-        <v>3.808742063382882</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8240,9 +8030,6 @@
           <t>G1V</t>
         </is>
       </c>
-      <c r="AC89" t="n">
-        <v>3.808742063382882</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -8326,9 +8113,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC90" t="n">
-        <v>3.6597385219976</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -8412,9 +8196,6 @@
           <t>HighPM*</t>
         </is>
       </c>
-      <c r="AC91" t="n">
-        <v>3.6597385219976</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8633,9 +8414,6 @@
           <t>F8V</t>
         </is>
       </c>
-      <c r="AC94" t="n">
-        <v>3.931765748319993</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8734,9 +8512,6 @@
           <t>F8V</t>
         </is>
       </c>
-      <c r="AC95" t="n">
-        <v>3.931765748319993</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9276,9 +9051,6 @@
           <t>**</t>
         </is>
       </c>
-      <c r="AC103" t="n">
-        <v>6.670646616107961</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -9362,9 +9134,6 @@
           <t>**</t>
         </is>
       </c>
-      <c r="AC104" t="n">
-        <v>6.670646616107961</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -9463,9 +9232,6 @@
           <t>G2V</t>
         </is>
       </c>
-      <c r="AC105" t="n">
-        <v>6.883095059612176</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -9564,9 +9330,6 @@
           <t>G2V</t>
         </is>
       </c>
-      <c r="AC106" t="n">
-        <v>6.883095059612176</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -9633,9 +9396,6 @@
           <t>F9V</t>
         </is>
       </c>
-      <c r="AC107" t="n">
-        <v>11.29841463121754</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -9736,9 +9496,6 @@
           <t>F3V and F5V</t>
         </is>
       </c>
-      <c r="AC108" t="n">
-        <v>10.85496352355556</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -9823,9 +9580,6 @@
         <is>
           <t>F8V</t>
         </is>
-      </c>
-      <c r="AC109" t="n">
-        <v>30.8947317817428</v>
       </c>
     </row>
     <row r="110">

--- a/results/stars_with_bright_neighbors.xlsx
+++ b/results/stars_with_bright_neighbors.xlsx
@@ -998,7 +998,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1462061709995883136</t>
+          <t>1462061709996744448</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1462061709996744448</t>
+          <t>1462061709995883136</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3894474755427985408</t>
+          <t>3894474759723667200</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3894474759723667200</t>
+          <t>3894474755427985408</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4207995002838460800</t>
+          <t>4207995002827396224</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4207995002827396224</t>
+          <t>4207995002838460800</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4316214125587568896</t>
+          <t>4316214125609944832</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4316214125609944832</t>
+          <t>4316214125587568896</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3213958769587525888</t>
+          <t>3213958769589070848</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3213958769589070848</t>
+          <t>3213958769587525888</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3514475531051071488</t>
+          <t>3514475535345385728</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3514475535345385728</t>
+          <t>3514475531051071488</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6529537526254976768</t>
+          <t>6529537521961887360</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6529537521961887360</t>
+          <t>6529537526254976768</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1837182676179555712</t>
+          <t>1837182676173127680</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1837182676173127680</t>
+          <t>1837182676179555712</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4692276170589724288</t>
+          <t>4692276170590701952</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4692276170590701952</t>
+          <t>4692276170589724288</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3054910392548138752</t>
+          <t>3054910392543754752</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3054910392543754752</t>
+          <t>3054910392548138752</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3511580654376012928</t>
+          <t>3511580658668406528</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3511580658668406528</t>
+          <t>3511580654376012928</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6278,282 +6278,282 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6298476051032199936</t>
+          <t>4187404036259094528</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6298476051032199936</t>
+          <t>4187404036259094528</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>6298476051032199936</t>
+          <t>4187404036259094528</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>217.8337361899387</v>
+        <v>292.0512585965648</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.64037537479623</v>
+        <v>-12.145184777159</v>
       </c>
       <c r="F68" t="n">
-        <v>8.668020908975601</v>
+        <v>8.213438034057617</v>
       </c>
       <c r="G68" t="n">
-        <v>9.035721778869629</v>
+        <v>8.213438034057617</v>
       </c>
       <c r="H68" t="n">
-        <v>8.90089225769043</v>
+        <v>7.808540344238281</v>
       </c>
       <c r="I68" t="n">
-        <v>7.66861629486084</v>
+        <v>6.908134937286377</v>
       </c>
       <c r="J68" t="n">
-        <v>1.23227596282959</v>
+        <v>0.9004054069519043</v>
       </c>
       <c r="K68" t="n">
-        <v>22.44221926782221</v>
+        <v>26.82442894269294</v>
       </c>
       <c r="L68" t="n">
         <v>5420.00849935214</v>
       </c>
       <c r="N68" t="n">
-        <v>1.056817527779121</v>
+        <v>1.169499555379738</v>
       </c>
       <c r="P68" t="n">
-        <v>1.422432991037836</v>
+        <v>1.496345366643906</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.3846989403186152</v>
+        <v>0.3120357937932556</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>HD 127356B</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>GJ 3854 B</t>
+          <t>HD 183063B</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
           <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AA68" t="inlineStr">
-        <is>
-          <t>K3?</t>
-        </is>
-      </c>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>K3</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4187404036259094528</t>
+          <t>6298476051032199936</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4187404036259094528</t>
+          <t>6298476252895259520</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>4187404036259094528</t>
+          <t>6298476051032199936</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>292.0512585965648</v>
+        <v>217.8337361899387</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.145184777159</v>
+        <v>-15.64037537479623</v>
       </c>
       <c r="F69" t="n">
-        <v>8.213438034057617</v>
+        <v>8.668020908975601</v>
       </c>
       <c r="G69" t="n">
-        <v>8.213438034057617</v>
+        <v>9.035721778869629</v>
       </c>
       <c r="H69" t="n">
-        <v>7.808540344238281</v>
+        <v>8.90089225769043</v>
       </c>
       <c r="I69" t="n">
-        <v>6.908134937286377</v>
+        <v>7.66861629486084</v>
       </c>
       <c r="J69" t="n">
-        <v>0.9004054069519043</v>
+        <v>1.23227596282959</v>
       </c>
       <c r="K69" t="n">
-        <v>26.82442894269294</v>
+        <v>22.44221926782221</v>
       </c>
       <c r="L69" t="n">
         <v>5420.00849935214</v>
       </c>
       <c r="N69" t="n">
-        <v>1.169499555379738</v>
+        <v>1.056817527779121</v>
       </c>
       <c r="P69" t="n">
-        <v>1.496345366643906</v>
+        <v>1.422432991037836</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.3120357937932556</v>
+        <v>0.3846989403186152</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>HD 183063B</t>
+          <t>HD 127356B</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>GJ 3854 B</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>K3?</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>K3</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6298476051032199936</t>
+          <t>4187404036259094528</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6298476252895259520</t>
+          <t>4187404036266621952</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>6298476051032199936</t>
+          <t>4187404036259094528</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>217.8337361899387</v>
+        <v>292.0512585965648</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.64037537479623</v>
+        <v>-12.145184777159</v>
       </c>
       <c r="F70" t="n">
-        <v>8.668020908975601</v>
+        <v>8.213438034057617</v>
       </c>
       <c r="G70" t="n">
-        <v>9.035721778869629</v>
+        <v>8.213438034057617</v>
       </c>
       <c r="H70" t="n">
-        <v>8.90089225769043</v>
+        <v>7.808540344238281</v>
       </c>
       <c r="I70" t="n">
-        <v>7.66861629486084</v>
+        <v>6.908134937286377</v>
       </c>
       <c r="J70" t="n">
-        <v>1.23227596282959</v>
+        <v>0.9004054069519043</v>
       </c>
       <c r="K70" t="n">
-        <v>22.44221926782221</v>
+        <v>26.82442894269294</v>
       </c>
       <c r="L70" t="n">
         <v>5420.00849935214</v>
       </c>
       <c r="N70" t="n">
-        <v>1.056817527779121</v>
+        <v>1.169499555379738</v>
       </c>
       <c r="P70" t="n">
-        <v>1.422432991037836</v>
+        <v>1.496345366643906</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.3846989403186152</v>
+        <v>0.3120357937932556</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>HD 127356B</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>GJ 3854 B</t>
+          <t>HD 183063B</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
           <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AA70" t="inlineStr">
-        <is>
-          <t>K3?</t>
-        </is>
-      </c>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>K3</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4187404036259094528</t>
+          <t>6298476051032199936</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4187404036266621952</t>
+          <t>6298476051032199936</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>4187404036259094528</t>
+          <t>6298476051032199936</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>292.0512585965648</v>
+        <v>217.8337361899387</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.145184777159</v>
+        <v>-15.64037537479623</v>
       </c>
       <c r="F71" t="n">
-        <v>8.213438034057617</v>
+        <v>8.668020908975601</v>
       </c>
       <c r="G71" t="n">
-        <v>8.213438034057617</v>
+        <v>9.035721778869629</v>
       </c>
       <c r="H71" t="n">
-        <v>7.808540344238281</v>
+        <v>8.90089225769043</v>
       </c>
       <c r="I71" t="n">
-        <v>6.908134937286377</v>
+        <v>7.66861629486084</v>
       </c>
       <c r="J71" t="n">
-        <v>0.9004054069519043</v>
+        <v>1.23227596282959</v>
       </c>
       <c r="K71" t="n">
-        <v>26.82442894269294</v>
+        <v>22.44221926782221</v>
       </c>
       <c r="L71" t="n">
         <v>5420.00849935214</v>
       </c>
       <c r="N71" t="n">
-        <v>1.169499555379738</v>
+        <v>1.056817527779121</v>
       </c>
       <c r="P71" t="n">
-        <v>1.496345366643906</v>
+        <v>1.422432991037836</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.3120357937932556</v>
+        <v>0.3846989403186152</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>HD 183063B</t>
+          <t>HD 127356B</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>GJ 3854 B</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>K3?</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>K3</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6700048793060566272</t>
+          <t>6700048793058633728</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -6914,7 +6914,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6700048793058633728</t>
+          <t>6700048793060566272</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -7615,7 +7615,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>3312536927686011520</t>
+          <t>3312536923393893120</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -7630,19 +7630,19 @@
         <v>15.6381385358323</v>
       </c>
       <c r="F85" t="n">
-        <v>7.944008827209473</v>
+        <v>7.672853330383301</v>
       </c>
       <c r="G85" t="n">
         <v>7.944008827209473</v>
       </c>
       <c r="H85" t="n">
-        <v>5.725773334503174</v>
+        <v>7.905549049377441</v>
       </c>
       <c r="I85" t="n">
-        <v>5.313418865203857</v>
+        <v>6.680329322814941</v>
       </c>
       <c r="J85" t="n">
-        <v>0.4123544692993164</v>
+        <v>1.2252197265625</v>
       </c>
       <c r="K85" t="n">
         <v>21.33769931920589</v>
@@ -7663,10 +7663,10 @@
         <v>1.365843868772226</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.3217393066198116</v>
+        <v>0.2839703666371027</v>
       </c>
       <c r="R85" t="n">
-        <v>4.205458838412122</v>
+        <v>3.711777761890294</v>
       </c>
       <c r="S85" t="n">
         <v>0.9648470258968647</v>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>3312536923393893120</t>
+          <t>3312536927686011520</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -7715,19 +7715,19 @@
         <v>15.6381385358323</v>
       </c>
       <c r="F86" t="n">
-        <v>7.672853330383301</v>
+        <v>7.944008827209473</v>
       </c>
       <c r="G86" t="n">
         <v>7.944008827209473</v>
       </c>
       <c r="H86" t="n">
-        <v>7.905549049377441</v>
+        <v>5.725773334503174</v>
       </c>
       <c r="I86" t="n">
-        <v>6.680329322814941</v>
+        <v>5.313418865203857</v>
       </c>
       <c r="J86" t="n">
-        <v>1.2252197265625</v>
+        <v>0.4123544692993164</v>
       </c>
       <c r="K86" t="n">
         <v>21.33769931920589</v>
@@ -7748,10 +7748,10 @@
         <v>1.365843868772226</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.2839703666371027</v>
+        <v>0.3217393066198116</v>
       </c>
       <c r="R86" t="n">
-        <v>3.711777761890294</v>
+        <v>4.205458838412122</v>
       </c>
       <c r="S86" t="n">
         <v>0.9648470258968647</v>
@@ -8039,7 +8039,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>4858250268302005760</t>
+          <t>4858250264007576320</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -8122,7 +8122,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>4858250264007576320</t>
+          <t>4858250268302005760</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -8205,7 +8205,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2739059700183271424</t>
+          <t>2739059700184753280</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -8226,7 +8226,13 @@
         <v>8.972273826599121</v>
       </c>
       <c r="H92" t="n">
-        <v>7.701591491699219</v>
+        <v>7.462995529174805</v>
+      </c>
+      <c r="I92" t="n">
+        <v>6.632507801055908</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.8304877281188965</v>
       </c>
       <c r="K92" t="n">
         <v>23.30923025364912</v>
@@ -8262,7 +8268,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2739059700184753280</t>
+          <t>2739059700183271424</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -8283,13 +8289,7 @@
         <v>8.972273826599121</v>
       </c>
       <c r="H93" t="n">
-        <v>7.462995529174805</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6.632507801055908</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.8304877281188965</v>
+        <v>7.701591491699219</v>
       </c>
       <c r="K93" t="n">
         <v>23.30923025364912</v>
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>5848710168215059584</t>
+          <t>5848710168188419456</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -8652,7 +8652,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>5848710168188419456</t>
+          <t>5848710168215059584</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -8715,131 +8715,131 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>5650153795716877568</t>
+          <t>2019550767153854080</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>5650153825784353280</t>
+          <t>2019550767177606016</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>5650153795716877568</t>
+          <t>2019550767153854080</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>137.1509137769664</v>
+        <v>293.3591550413757</v>
       </c>
       <c r="E99" t="n">
-        <v>-25.83897499617422</v>
+        <v>23.49786033326636</v>
       </c>
       <c r="F99" t="n">
-        <v>11.61914443969727</v>
+        <v>11.95027923583984</v>
       </c>
       <c r="G99" t="n">
-        <v>11.61914443969727</v>
+        <v>11.95027923583984</v>
       </c>
       <c r="H99" t="n">
-        <v>6.943893432617188</v>
+        <v>7.998145580291748</v>
       </c>
       <c r="I99" t="n">
-        <v>6.195503234863281</v>
+        <v>7.178745269775391</v>
       </c>
       <c r="J99" t="n">
-        <v>0.7483901977539062</v>
+        <v>0.8194003105163574</v>
       </c>
       <c r="K99" t="n">
-        <v>22.40026209270729</v>
+        <v>21.33710135631854</v>
       </c>
       <c r="L99" t="n">
         <v>5956.622743314438</v>
       </c>
       <c r="N99" t="n">
-        <v>3.311311302082258</v>
+        <v>1.419057770979633</v>
       </c>
       <c r="P99" t="n">
-        <v>2.425853360885495</v>
+        <v>1.588051481584071</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.879641292066385</v>
+        <v>2.189283159065488</v>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>HD  78643B</t>
-        </is>
-      </c>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>GJ 9287 B</t>
+          <t>HD 184403B</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>Star</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2019550767153854080</t>
+          <t>5650153795716877568</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2019550767177606016</t>
+          <t>5650153825784353280</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2019550767153854080</t>
+          <t>5650153795716877568</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>293.3591550413757</v>
+        <v>137.1509137769664</v>
       </c>
       <c r="E100" t="n">
-        <v>23.49786033326636</v>
+        <v>-25.83897499617422</v>
       </c>
       <c r="F100" t="n">
-        <v>11.95027923583984</v>
+        <v>11.61914443969727</v>
       </c>
       <c r="G100" t="n">
-        <v>11.95027923583984</v>
+        <v>11.61914443969727</v>
       </c>
       <c r="H100" t="n">
-        <v>7.998145580291748</v>
+        <v>6.943893432617188</v>
       </c>
       <c r="I100" t="n">
-        <v>7.178745269775391</v>
+        <v>6.195503234863281</v>
       </c>
       <c r="J100" t="n">
-        <v>0.8194003105163574</v>
+        <v>0.7483901977539062</v>
       </c>
       <c r="K100" t="n">
-        <v>21.33710135631854</v>
+        <v>22.40026209270729</v>
       </c>
       <c r="L100" t="n">
         <v>5956.622743314438</v>
       </c>
       <c r="N100" t="n">
-        <v>1.419057770979633</v>
+        <v>3.311311302082258</v>
       </c>
       <c r="P100" t="n">
-        <v>1.588051481584071</v>
+        <v>2.425853360885495</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.189283159065488</v>
+        <v>1.879641292066385</v>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>HD 184403B</t>
+          <t>HD  78643B</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>GJ 9287 B</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>Star</t>
+          <t>**</t>
         </is>
       </c>
     </row>
@@ -8977,7 +8977,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1271209615518148736</t>
+          <t>1271209611223823232</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1271209611223823232</t>
+          <t>1271209615518148736</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">

--- a/results/stars_with_bright_neighbors.xlsx
+++ b/results/stars_with_bright_neighbors.xlsx
@@ -998,7 +998,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1462061709996744448</t>
+          <t>1462061709995883136</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1462061709995883136</t>
+          <t>1462061709996744448</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3894474759723667200</t>
+          <t>3894474755427985408</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3894474755427985408</t>
+          <t>3894474759723667200</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4207995002827396224</t>
+          <t>4207995002838460800</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4207995002838460800</t>
+          <t>4207995002827396224</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4316214125609944832</t>
+          <t>4316214125587568896</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4316214125587568896</t>
+          <t>4316214125609944832</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3213958769589070848</t>
+          <t>3213958769587525888</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3213958769587525888</t>
+          <t>3213958769589070848</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3514475535345385728</t>
+          <t>3514475531051071488</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3514475531051071488</t>
+          <t>3514475535345385728</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6529537521961887360</t>
+          <t>6529537526254976768</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6529537526254976768</t>
+          <t>6529537521961887360</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1837182676173127680</t>
+          <t>1837182676179555712</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1837182676179555712</t>
+          <t>1837182676173127680</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4692276170590701952</t>
+          <t>4692276170589724288</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4692276170589724288</t>
+          <t>4692276170590701952</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3054910392543754752</t>
+          <t>3054910392548138752</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3054910392548138752</t>
+          <t>3054910392543754752</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>SB*</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3511580658668406528</t>
+          <t>3511580654376012928</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3511580654376012928</t>
+          <t>3511580658668406528</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6278,282 +6278,282 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4187404036259094528</t>
+          <t>6298476051032199936</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4187404036259094528</t>
+          <t>6298476051032199936</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4187404036259094528</t>
+          <t>6298476051032199936</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>292.0512585965648</v>
+        <v>217.8337361899387</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.145184777159</v>
+        <v>-15.64037537479623</v>
       </c>
       <c r="F68" t="n">
-        <v>8.213438034057617</v>
+        <v>8.668020908975601</v>
       </c>
       <c r="G68" t="n">
-        <v>8.213438034057617</v>
+        <v>9.035721778869629</v>
       </c>
       <c r="H68" t="n">
-        <v>7.808540344238281</v>
+        <v>8.90089225769043</v>
       </c>
       <c r="I68" t="n">
-        <v>6.908134937286377</v>
+        <v>7.66861629486084</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9004054069519043</v>
+        <v>1.23227596282959</v>
       </c>
       <c r="K68" t="n">
-        <v>26.82442894269294</v>
+        <v>22.44221926782221</v>
       </c>
       <c r="L68" t="n">
         <v>5420.00849935214</v>
       </c>
       <c r="N68" t="n">
-        <v>1.169499555379738</v>
+        <v>1.056817527779121</v>
       </c>
       <c r="P68" t="n">
-        <v>1.496345366643906</v>
+        <v>1.422432991037836</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.3120357937932556</v>
+        <v>0.3846989403186152</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>HD 183063B</t>
+          <t>HD 127356B</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>GJ 3854 B</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>K3?</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>K3</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6298476051032199936</t>
+          <t>4187404036259094528</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6298476252895259520</t>
+          <t>4187404036259094528</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>6298476051032199936</t>
+          <t>4187404036259094528</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>217.8337361899387</v>
+        <v>292.0512585965648</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.64037537479623</v>
+        <v>-12.145184777159</v>
       </c>
       <c r="F69" t="n">
-        <v>8.668020908975601</v>
+        <v>8.213438034057617</v>
       </c>
       <c r="G69" t="n">
-        <v>9.035721778869629</v>
+        <v>8.213438034057617</v>
       </c>
       <c r="H69" t="n">
-        <v>8.90089225769043</v>
+        <v>7.808540344238281</v>
       </c>
       <c r="I69" t="n">
-        <v>7.66861629486084</v>
+        <v>6.908134937286377</v>
       </c>
       <c r="J69" t="n">
-        <v>1.23227596282959</v>
+        <v>0.9004054069519043</v>
       </c>
       <c r="K69" t="n">
-        <v>22.44221926782221</v>
+        <v>26.82442894269294</v>
       </c>
       <c r="L69" t="n">
         <v>5420.00849935214</v>
       </c>
       <c r="N69" t="n">
-        <v>1.056817527779121</v>
+        <v>1.169499555379738</v>
       </c>
       <c r="P69" t="n">
-        <v>1.422432991037836</v>
+        <v>1.496345366643906</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.3846989403186152</v>
+        <v>0.3120357937932556</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>HD 127356B</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>GJ 3854 B</t>
+          <t>HD 183063B</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
           <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AA69" t="inlineStr">
-        <is>
-          <t>K3?</t>
-        </is>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>K3</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>4187404036259094528</t>
+          <t>6298476051032199936</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4187404036266621952</t>
+          <t>6298476252895259520</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>4187404036259094528</t>
+          <t>6298476051032199936</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>292.0512585965648</v>
+        <v>217.8337361899387</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.145184777159</v>
+        <v>-15.64037537479623</v>
       </c>
       <c r="F70" t="n">
-        <v>8.213438034057617</v>
+        <v>8.668020908975601</v>
       </c>
       <c r="G70" t="n">
-        <v>8.213438034057617</v>
+        <v>9.035721778869629</v>
       </c>
       <c r="H70" t="n">
-        <v>7.808540344238281</v>
+        <v>8.90089225769043</v>
       </c>
       <c r="I70" t="n">
-        <v>6.908134937286377</v>
+        <v>7.66861629486084</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9004054069519043</v>
+        <v>1.23227596282959</v>
       </c>
       <c r="K70" t="n">
-        <v>26.82442894269294</v>
+        <v>22.44221926782221</v>
       </c>
       <c r="L70" t="n">
         <v>5420.00849935214</v>
       </c>
       <c r="N70" t="n">
-        <v>1.169499555379738</v>
+        <v>1.056817527779121</v>
       </c>
       <c r="P70" t="n">
-        <v>1.496345366643906</v>
+        <v>1.422432991037836</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.3120357937932556</v>
+        <v>0.3846989403186152</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>HD 183063B</t>
+          <t>HD 127356B</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>GJ 3854 B</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>K3?</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>K3</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6298476051032199936</t>
+          <t>4187404036259094528</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6298476051032199936</t>
+          <t>4187404036266621952</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>6298476051032199936</t>
+          <t>4187404036259094528</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>217.8337361899387</v>
+        <v>292.0512585965648</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.64037537479623</v>
+        <v>-12.145184777159</v>
       </c>
       <c r="F71" t="n">
-        <v>8.668020908975601</v>
+        <v>8.213438034057617</v>
       </c>
       <c r="G71" t="n">
-        <v>9.035721778869629</v>
+        <v>8.213438034057617</v>
       </c>
       <c r="H71" t="n">
-        <v>8.90089225769043</v>
+        <v>7.808540344238281</v>
       </c>
       <c r="I71" t="n">
-        <v>7.66861629486084</v>
+        <v>6.908134937286377</v>
       </c>
       <c r="J71" t="n">
-        <v>1.23227596282959</v>
+        <v>0.9004054069519043</v>
       </c>
       <c r="K71" t="n">
-        <v>22.44221926782221</v>
+        <v>26.82442894269294</v>
       </c>
       <c r="L71" t="n">
         <v>5420.00849935214</v>
       </c>
       <c r="N71" t="n">
-        <v>1.056817527779121</v>
+        <v>1.169499555379738</v>
       </c>
       <c r="P71" t="n">
-        <v>1.422432991037836</v>
+        <v>1.496345366643906</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.3846989403186152</v>
+        <v>0.3120357937932556</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>HD 127356B</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>GJ 3854 B</t>
+          <t>HD 183063B</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
           <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AA71" t="inlineStr">
-        <is>
-          <t>K3?</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>K3</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6700048793058633728</t>
+          <t>6700048793060566272</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -6914,7 +6914,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6700048793060566272</t>
+          <t>6700048793058633728</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -7615,7 +7615,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>3312536923393893120</t>
+          <t>3312536927686011520</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -7630,19 +7630,19 @@
         <v>15.6381385358323</v>
       </c>
       <c r="F85" t="n">
-        <v>7.672853330383301</v>
+        <v>7.944008827209473</v>
       </c>
       <c r="G85" t="n">
         <v>7.944008827209473</v>
       </c>
       <c r="H85" t="n">
-        <v>7.905549049377441</v>
+        <v>5.725773334503174</v>
       </c>
       <c r="I85" t="n">
-        <v>6.680329322814941</v>
+        <v>5.313418865203857</v>
       </c>
       <c r="J85" t="n">
-        <v>1.2252197265625</v>
+        <v>0.4123544692993164</v>
       </c>
       <c r="K85" t="n">
         <v>21.33769931920589</v>
@@ -7663,10 +7663,10 @@
         <v>1.365843868772226</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.2839703666371027</v>
+        <v>0.3217393066198116</v>
       </c>
       <c r="R85" t="n">
-        <v>3.711777761890294</v>
+        <v>4.205458838412122</v>
       </c>
       <c r="S85" t="n">
         <v>0.9648470258968647</v>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>3312536927686011520</t>
+          <t>3312536923393893120</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -7715,19 +7715,19 @@
         <v>15.6381385358323</v>
       </c>
       <c r="F86" t="n">
-        <v>7.944008827209473</v>
+        <v>7.672853330383301</v>
       </c>
       <c r="G86" t="n">
         <v>7.944008827209473</v>
       </c>
       <c r="H86" t="n">
-        <v>5.725773334503174</v>
+        <v>7.905549049377441</v>
       </c>
       <c r="I86" t="n">
-        <v>5.313418865203857</v>
+        <v>6.680329322814941</v>
       </c>
       <c r="J86" t="n">
-        <v>0.4123544692993164</v>
+        <v>1.2252197265625</v>
       </c>
       <c r="K86" t="n">
         <v>21.33769931920589</v>
@@ -7748,10 +7748,10 @@
         <v>1.365843868772226</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.3217393066198116</v>
+        <v>0.2839703666371027</v>
       </c>
       <c r="R86" t="n">
-        <v>4.205458838412122</v>
+        <v>3.711777761890294</v>
       </c>
       <c r="S86" t="n">
         <v>0.9648470258968647</v>
@@ -8039,7 +8039,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>4858250264007576320</t>
+          <t>4858250268302005760</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -8122,7 +8122,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>4858250268302005760</t>
+          <t>4858250264007576320</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -8205,7 +8205,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2739059700184753280</t>
+          <t>2739059700183271424</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -8226,13 +8226,7 @@
         <v>8.972273826599121</v>
       </c>
       <c r="H92" t="n">
-        <v>7.462995529174805</v>
-      </c>
-      <c r="I92" t="n">
-        <v>6.632507801055908</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.8304877281188965</v>
+        <v>7.701591491699219</v>
       </c>
       <c r="K92" t="n">
         <v>23.30923025364912</v>
@@ -8268,7 +8262,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2739059700183271424</t>
+          <t>2739059700184753280</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -8289,7 +8283,13 @@
         <v>8.972273826599121</v>
       </c>
       <c r="H93" t="n">
-        <v>7.701591491699219</v>
+        <v>7.462995529174805</v>
+      </c>
+      <c r="I93" t="n">
+        <v>6.632507801055908</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.8304877281188965</v>
       </c>
       <c r="K93" t="n">
         <v>23.30923025364912</v>
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>5848710168188419456</t>
+          <t>5848710168215059584</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -8652,7 +8652,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>5848710168215059584</t>
+          <t>5848710168188419456</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -8715,131 +8715,131 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2019550767153854080</t>
+          <t>5650153795716877568</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2019550767177606016</t>
+          <t>5650153825784353280</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2019550767153854080</t>
+          <t>5650153795716877568</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>293.3591550413757</v>
+        <v>137.1509137769664</v>
       </c>
       <c r="E99" t="n">
-        <v>23.49786033326636</v>
+        <v>-25.83897499617422</v>
       </c>
       <c r="F99" t="n">
-        <v>11.95027923583984</v>
+        <v>11.61914443969727</v>
       </c>
       <c r="G99" t="n">
-        <v>11.95027923583984</v>
+        <v>11.61914443969727</v>
       </c>
       <c r="H99" t="n">
-        <v>7.998145580291748</v>
+        <v>6.943893432617188</v>
       </c>
       <c r="I99" t="n">
-        <v>7.178745269775391</v>
+        <v>6.195503234863281</v>
       </c>
       <c r="J99" t="n">
-        <v>0.8194003105163574</v>
+        <v>0.7483901977539062</v>
       </c>
       <c r="K99" t="n">
-        <v>21.33710135631854</v>
+        <v>22.40026209270729</v>
       </c>
       <c r="L99" t="n">
         <v>5956.622743314438</v>
       </c>
       <c r="N99" t="n">
-        <v>1.419057770979633</v>
+        <v>3.311311302082258</v>
       </c>
       <c r="P99" t="n">
-        <v>1.588051481584071</v>
+        <v>2.425853360885495</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.189283159065488</v>
+        <v>1.879641292066385</v>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>HD 184403B</t>
+          <t>HD  78643B</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>GJ 9287 B</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>Star</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>5650153795716877568</t>
+          <t>2019550767153854080</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>5650153825784353280</t>
+          <t>2019550767177606016</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>5650153795716877568</t>
+          <t>2019550767153854080</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>137.1509137769664</v>
+        <v>293.3591550413757</v>
       </c>
       <c r="E100" t="n">
-        <v>-25.83897499617422</v>
+        <v>23.49786033326636</v>
       </c>
       <c r="F100" t="n">
-        <v>11.61914443969727</v>
+        <v>11.95027923583984</v>
       </c>
       <c r="G100" t="n">
-        <v>11.61914443969727</v>
+        <v>11.95027923583984</v>
       </c>
       <c r="H100" t="n">
-        <v>6.943893432617188</v>
+        <v>7.998145580291748</v>
       </c>
       <c r="I100" t="n">
-        <v>6.195503234863281</v>
+        <v>7.178745269775391</v>
       </c>
       <c r="J100" t="n">
-        <v>0.7483901977539062</v>
+        <v>0.8194003105163574</v>
       </c>
       <c r="K100" t="n">
-        <v>22.40026209270729</v>
+        <v>21.33710135631854</v>
       </c>
       <c r="L100" t="n">
         <v>5956.622743314438</v>
       </c>
       <c r="N100" t="n">
-        <v>3.311311302082258</v>
+        <v>1.419057770979633</v>
       </c>
       <c r="P100" t="n">
-        <v>2.425853360885495</v>
+        <v>1.588051481584071</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.879641292066385</v>
+        <v>2.189283159065488</v>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>HD  78643B</t>
-        </is>
-      </c>
-      <c r="W100" t="inlineStr">
-        <is>
-          <t>GJ 9287 B</t>
+          <t>HD 184403B</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>Star</t>
         </is>
       </c>
     </row>
@@ -8977,7 +8977,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1271209611223823232</t>
+          <t>1271209615518148736</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1271209615518148736</t>
+          <t>1271209611223823232</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">

--- a/results/stars_with_bright_neighbors.xlsx
+++ b/results/stars_with_bright_neighbors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AB122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -434,23 +434,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="21" customWidth="1" min="2" max="2"/>
     <col width="21" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
-    <col width="19" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
     <col width="19" customWidth="1" min="6" max="6"/>
     <col width="19" customWidth="1" min="7" max="7"/>
     <col width="19" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
     <col width="20" customWidth="1" min="10" max="10"/>
     <col width="19" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="18" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="21" customWidth="1" min="14" max="14"/>
     <col width="16" customWidth="1" min="15" max="15"/>
-    <col width="19" customWidth="1" min="16" max="16"/>
-    <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="21" customWidth="1" min="17" max="17"/>
     <col width="30" customWidth="1" min="18" max="18"/>
     <col width="22" customWidth="1" min="19" max="19"/>
     <col width="11" customWidth="1" min="20" max="20"/>
@@ -609,81 +609,9927 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Gaia DR3 2798587122272590080</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2798587122272590080</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2798587122272590080</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3.289270371578388</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20.38242970186477</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10.38489247441292</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10.13408946990967</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10.62700366973877</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.023500442504883</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.603503227233887</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.0513122310541</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3839.6316</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.6973405499999999</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.17946884</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.95658505</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.6488478650389156</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.4998844045672371</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3.760737304447784</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.796662091844258</v>
+      </c>
+      <c r="T2" t="n">
+        <v>4.0958</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5726415887862017408</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5726415887862017536</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5726415887862017408</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>123.2844389086242</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-13.91906744476159</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.72026209769249</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9.807332992553711</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9.969772338867188</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.068999290466309</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.900773048400879</v>
+      </c>
+      <c r="K3" t="n">
+        <v>46.95564674097009</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3850</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.06918309709189366</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.4026311336917571</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.3724248137509898</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.995436863632132</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.803773182186938</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>GJ 301</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>M0V</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>M0V</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5726415887862017408</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5726415887862017408</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5726415887862017408</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>123.2844389086242</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-13.91906744476159</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.72026209769249</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9.807332992553711</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.969772338867188</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.068999290466309</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.900773048400879</v>
+      </c>
+      <c r="K4" t="n">
+        <v>46.95564674097009</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3850</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.06918309709189366</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.4026311336917571</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.3724248137509898</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.995436863632132</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.803773182186938</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>GJ 301</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>M0V</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>M0V</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Gaia DR3 2646280705713202816</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2646280705713202816</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2646280705713202816</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>353.7526649303313</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.605525000716962</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.550326635484696</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9.03919792175293</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9.796212196350098</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.041067123413086</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.755145072937012</v>
+      </c>
+      <c r="K5" t="n">
+        <v>47.9641231232799</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3896.6836</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.66037154</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.11995568</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.6670184</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.5288385622310787</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3612633221123505</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.387745060551896</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.225229994880484</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4.3969</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>GJ 900</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>116384</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>K7V</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>K7V</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Gaia DR3 1462061709995883136</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1462061709995883136</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1462061709995883136</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>200.8841905787304</v>
+      </c>
+      <c r="E6" t="n">
+        <v>29.2385865148712</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.329120260224343</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8.844668388366699</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.575559616088867</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.798164844512939</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.777394771575928</v>
+      </c>
+      <c r="K6" t="n">
+        <v>55.20998508388942</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3905.417</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.6421308</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.10700539</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.71435326</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.4992395822285981</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.3289378003837439</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.082994627762725</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.761507142458212</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4.3716</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>HD 116495</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>GJ 509</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>K5V</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>K5V</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Gaia DR3 1462061709995883136</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1462061709996744448</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1462061709995883136</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>200.8841905787304</v>
+      </c>
+      <c r="E7" t="n">
+        <v>29.2385865148712</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.329120260224343</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8.844668388366699</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9.575559616088867</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.798164844512939</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.777394771575928</v>
+      </c>
+      <c r="K7" t="n">
+        <v>55.20998508388942</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3905.417</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.6421308</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.10700539</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.71435326</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.4992395822285981</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.3289378003837439</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.082994627762725</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.761507142458212</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4.3716</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>HD 116495</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>GJ 509</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>K5V</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>K5V</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Gaia DR3 1751817379359709568</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1751817379359709568</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>312.3494921101372</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11.40182028799557</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.268885464849472</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9.549202919006348</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9.50434684753418</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.168011665344238</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.336335182189941</v>
+      </c>
+      <c r="K8" t="n">
+        <v>26.64901996770639</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3990</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.08709635899560805</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.4483090764455973</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.3423986542680916</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.01894634516622</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.665424235047427</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>GJ 9709</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>K8V:</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>K8V</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Gaia DR3 6042368388128986240</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6042368383828169728</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6042368388128986240</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>243.8127361524329</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-27.26228514411875</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11.29057450381279</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10.66910743713379</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11.53766822814941</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9.733983039855957</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.803685188293457</v>
+      </c>
+      <c r="K9" t="n">
+        <v>28.09090695628927</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4029.5037</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.6324058</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.096135914</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.63609433</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.4699538543521158</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.8915600689393799</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5.436103753189835</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.457147746978212</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4.6159</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3041746042900108416</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3041746042900108416</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3041746042900108416</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>115.2348700511043</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-8.623084101951319</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11.03659150676727</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.59493255615234</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11.27775096893311</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9.712485313415527</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.565265655517578</v>
+      </c>
+      <c r="K10" t="n">
+        <v>20.25788996639874</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4030.0789</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.6809816400000001</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.15284292</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.7794319</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.5925444202583644</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.793429282936343</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5.636996605618434</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.438139034198617</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4.1896</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3807826646385182976</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3807826646385182976</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3807826646385182976</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>163.1646666356611</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4837383262045548</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.65582235859871</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10.17705726623535</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10.89797115325928</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9.292957305908203</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.605013847351074</v>
+      </c>
+      <c r="K11" t="n">
+        <v>25.40974254788999</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4156</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.160248</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.6023417708913223</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.7098522847247498</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5.264554196884081</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.013975905790975</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>53175</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>K4V</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>K4V</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Gaia DR3 6520549121779109248</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6520549121779109248</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>6520549121779109248</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>337.5415403347051</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-44.38015274662973</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10.90619194998741</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.49122905731201</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11.14870643615723</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9.529000282287598</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.619706153869629</v>
+      </c>
+      <c r="K12" t="n">
+        <v>23.75956531237705</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4201.7783</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.6566496000000001</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.1226806</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.66131955</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.525606951819428</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.8105151720537281</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5.325615678939445</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.27038547344188</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4.6389</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3894474755427985408</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3894474755427985408</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3894474755427985408</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>183.9915008588768</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.639869466638118</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9.753693041915893</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9.56519603729248</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9.994800567626953</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8.431621551513672</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.563179016113281</v>
+      </c>
+      <c r="K13" t="n">
+        <v>28.6812390197242</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4213.8364</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.7034826</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.18514438</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.8070956</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.645233474784863</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.4786656497351662</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3.606838733295686</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.338068728048956</v>
+      </c>
+      <c r="T13" t="n">
+        <v>4.4061</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>GJ 9400</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3894474755427985408</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3894474759723667200</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3894474755427985408</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>183.9915008588768</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.639869466638118</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9.753693041915893</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9.56519603729248</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9.994800567626953</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8.431621551513672</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.563179016113281</v>
+      </c>
+      <c r="K14" t="n">
+        <v>28.6812390197242</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4213.8364</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.7034826</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.18514438</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.8070956</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.645233474784863</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.4786656497351662</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3.606838733295686</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.338068728048956</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4.4061</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>GJ 9400</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5881899648280568192</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5881899678276640000</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5881899648280568192</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>234.8319204233202</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-58.93330843524663</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10.21329973181725</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9.812010765075684</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10.45073223114014</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9.03520393371582</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.415528297424316</v>
+      </c>
+      <c r="K15" t="n">
+        <v>25.01623199633388</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4278.635</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.7138875</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.18830808</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.7649918999999999</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.6481938474187077</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.6025487329835789</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4.584264837505795</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.594627566363501</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4.4714</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3534414590303807232</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3534414590303807232</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>170.521589542573</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-24.77776667866303</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8.91502405374527</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9.026257514953613</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9.157205581665039</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7.550876617431641</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.606328964233398</v>
+      </c>
+      <c r="K16" t="n">
+        <v>23.75213082054824</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4293</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.02815</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.513282114068526</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.3324884740366157</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>HD 98800</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>GJ 2084</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>55505</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Or*</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3534414594600352896</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3534414594600352896</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>170.521605431721</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-24.77761811107532</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8.927541458444596</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9.267608642578125</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9.170170783996582</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7.54585075378418</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.624320030212402</v>
+      </c>
+      <c r="K17" t="n">
+        <v>20.0633605256949</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4293</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.02815</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.513282114068526</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.3344106312886359</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>HD 98800</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>GJ 2084</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>55505</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>SB*</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Gaia DR3 1783575162113858816</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1783575162113858816</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1783575162113858816</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>321.5427656657129</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15.28919437925622</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10.62382328482628</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10.27088737487793</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10.86145973205566</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9.437737464904785</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.423722267150879</v>
+      </c>
+      <c r="K18" t="n">
+        <v>20.26385772221722</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4299.067</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.704778</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.20960374</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.9038358</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.6830158580699598</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.7313173655324477</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5.674906265187142</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.9545171174009317</v>
+      </c>
+      <c r="T18" t="n">
+        <v>4.449</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Gaia DR3 4443491770518509056</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4443491770518509184</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4443491770518509056</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>257.1042432615184</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9.265386583367414</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10.53100793741226</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10.39476299285889</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10.76993465423584</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9.294373512268066</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.475561141967773</v>
+      </c>
+      <c r="K19" t="n">
+        <v>22.18326934269052</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4358.8687</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.6898737</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.14004394</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.656089</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.5562493491799676</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.7077103833893607</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4.903269312575477</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.442762922329309</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4.6482</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Gaia DR3 4443491770518509056</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>4443491770518509056</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4443491770518509056</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>257.1042432615184</v>
+      </c>
+      <c r="E20" t="n">
+        <v>9.265386583367414</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10.53100793741226</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10.39476299285889</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10.76993465423584</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9.294373512268066</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.475561141967773</v>
+      </c>
+      <c r="K20" t="n">
+        <v>22.18326934269052</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4358.8687</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.6898737</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.14004394</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.656089</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.5562493491799676</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.7077103833893607</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4.903269312575477</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.442762922329309</v>
+      </c>
+      <c r="T20" t="n">
+        <v>4.6482</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5788524757093517568</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5788524757093517568</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5788524757093517568</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>189.944679579346</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-77.8416730865592</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9.040300905594826</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9.286781311035156</v>
+      </c>
+      <c r="H21" t="n">
+        <v>9.278746604919434</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7.822511196136475</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.456235408782959</v>
+      </c>
+      <c r="K21" t="n">
+        <v>38.19295912578448</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4370</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.155909254667613</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.5865081366301084</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.3566445732449123</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.546674424112553</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.162285769398444</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>HD 109952</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>GJ 2096</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>61792</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>K5.5Vk:</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>K5V and K6V</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Gaia DR3 4207995002838460800</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4207995002827396224</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4207995002838460800</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>290.8178249428688</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-6.586255752162967</v>
+      </c>
+      <c r="F22" t="n">
+        <v>9.672161696071624</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9.335972785949707</v>
+      </c>
+      <c r="H22" t="n">
+        <v>9.909263610839844</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8.507017135620117</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.402246475219727</v>
+      </c>
+      <c r="K22" t="n">
+        <v>32.041699261994</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4448.4688</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.7006674000000001</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.17009962</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.6943287</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.6096181112778456</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.4777061750597575</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3.491845221193459</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.093228118835519</v>
+      </c>
+      <c r="T22" t="n">
+        <v>4.6036</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>HD 182085</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>95299</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>K3/4(V)</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>K3/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Gaia DR3 4207995002838460800</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>4207995002838460800</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4207995002838460800</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>290.8178249428688</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-6.586255752162967</v>
+      </c>
+      <c r="F23" t="n">
+        <v>9.672161696071624</v>
+      </c>
+      <c r="G23" t="n">
+        <v>9.335972785949707</v>
+      </c>
+      <c r="H23" t="n">
+        <v>9.909263610839844</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8.507017135620117</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.402246475219727</v>
+      </c>
+      <c r="K23" t="n">
+        <v>32.041699261994</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4448.4688</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7006674000000001</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.17009962</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.6943287</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.6096181112778456</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.4777061750597575</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3.491845221193459</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.093228118835519</v>
+      </c>
+      <c r="T23" t="n">
+        <v>4.6036</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>HD 182085</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>95299</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>K3/4(V)</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>K3/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5206591559323592576</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5206591559323592576</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>5206591559323592576</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>100.0917724576272</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-82.37879369789319</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10.35061324808121</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10.01399612426758</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10.58588409423828</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9.257204055786133</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.328680038452148</v>
+      </c>
+      <c r="K24" t="n">
+        <v>20.55093173488983</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4502.8423</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.75705504</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.2003331</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.66352457</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.6592999903591944</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.6475540058613601</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5.11672005989197</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.591531114303152</v>
+      </c>
+      <c r="T24" t="n">
+        <v>4.5385</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>31931</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Gaia DR3 4316214125587568896</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>4316214125587568896</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4316214125587568896</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>292.0639077583364</v>
+      </c>
+      <c r="E25" t="n">
+        <v>12.53572406222346</v>
+      </c>
+      <c r="F25" t="n">
+        <v>9.156299172067643</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8.835731506347656</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9.391515731811523</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8.065016746520996</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.326498985290527</v>
+      </c>
+      <c r="K25" t="n">
+        <v>34.45696000448748</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4526.0615</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7369335</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.22576086</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.77273655</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.6988522628563384</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.3742432989073516</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3.003789689968765</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.597106714648358</v>
+      </c>
+      <c r="T25" t="n">
+        <v>4.5255</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>HD 231512</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>GJ 761</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>95730</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>K3V</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>K3V</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Gaia DR3 4316214125587568896</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>4316214125609944832</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4316214125587568896</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>292.0639077583364</v>
+      </c>
+      <c r="E26" t="n">
+        <v>12.53572406222346</v>
+      </c>
+      <c r="F26" t="n">
+        <v>9.156299172067643</v>
+      </c>
+      <c r="G26" t="n">
+        <v>8.835731506347656</v>
+      </c>
+      <c r="H26" t="n">
+        <v>9.391515731811523</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8.065016746520996</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.326498985290527</v>
+      </c>
+      <c r="K26" t="n">
+        <v>34.45696000448748</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4526.0615</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.7369335</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.22576086</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.77273655</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.6988522628563384</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.3742432989073516</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3.003789689968765</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.597106714648358</v>
+      </c>
+      <c r="T26" t="n">
+        <v>4.5255</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>HD 231512</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>GJ 761</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>95730</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>K3V</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>K3V</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Gaia DR3 2609889349030557696</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2609889349030557696</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2609889349030557696</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>343.3558562535752</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-9.092730958409469</v>
+      </c>
+      <c r="F27" t="n">
+        <v>9.605584812498092</v>
+      </c>
+      <c r="G27" t="n">
+        <v>9.261073112487793</v>
+      </c>
+      <c r="H27" t="n">
+        <v>9.841424942016602</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8.489872932434082</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.35155200958252</v>
+      </c>
+      <c r="K27" t="n">
+        <v>28.26202180669747</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4548.849</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.745353</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.22463223</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.7630494</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.6960819921677888</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.4610106011495716</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3.713909839891445</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.677660341280848</v>
+      </c>
+      <c r="T27" t="n">
+        <v>4.5647</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>HD 216493</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>113026</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>K4V</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>K4V</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3213958769587525888</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3213958769589070848</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3213958769587525888</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>79.80586741563162</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-3.07320375008595</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7.79083579457283</v>
+      </c>
+      <c r="G28" t="n">
+        <v>7.49282169342041</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8.024881362915039</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6.745429039001465</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.279452323913574</v>
+      </c>
+      <c r="K28" t="n">
+        <v>63.64345779109681</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4587.147</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.22333561</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.74825865</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.6923516042810443</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.2003902933142826</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.647004194991648</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.861827173220574</v>
+      </c>
+      <c r="T28" t="n">
+        <v>4.5363</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>HD 34673</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>GJ 200</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>24819</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>K3V</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>K3V</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3213958769587525888</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3213958769587525888</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3213958769587525888</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>79.80586741563162</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-3.07320375008595</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7.79083579457283</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.49282169342041</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8.024881362915039</v>
+      </c>
+      <c r="I29" t="n">
+        <v>6.745429039001465</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.279452323913574</v>
+      </c>
+      <c r="K29" t="n">
+        <v>63.64345779109681</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4587.147</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.22333561</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.74825865</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.6923516042810443</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.2003902933142826</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.647004194991648</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.861827173220574</v>
+      </c>
+      <c r="T29" t="n">
+        <v>4.5363</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>HD 34673</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>GJ 200</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>24819</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>K3V</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>K3V</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3662657851291101824</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3662657851291101824</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3662657851291101824</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>203.5671645163606</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.3140518501525216</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8.45024824728489</v>
+      </c>
+      <c r="G30" t="n">
+        <v>8.366750717163086</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8.679489135742188</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7.59307336807251</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.086415767669678</v>
+      </c>
+      <c r="K30" t="n">
+        <v>36.64522701963261</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4613.6777</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7983691000000001</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.26495573</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.6803156</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.7528072719662503</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.2719492371114293</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.357976800499652</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.535551468918422</v>
+      </c>
+      <c r="T30" t="n">
+        <v>4.4317</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>HD 118036</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3662657851291101824</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3662657851291871104</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3662657851291101824</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>203.5671645163606</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.3140518501525216</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8.45024824728489</v>
+      </c>
+      <c r="G31" t="n">
+        <v>8.366750717163086</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8.679489135742188</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7.59307336807251</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.086415767669678</v>
+      </c>
+      <c r="K31" t="n">
+        <v>36.64522701963261</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4613.6777</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.7983691000000001</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.26495573</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.6803156</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.7528072719662503</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.2719492371114293</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.357976800499652</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.535551468918422</v>
+      </c>
+      <c r="T31" t="n">
+        <v>4.4317</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>HD 118036</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Gaia DR3 727941293901945216</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>727941293901945216</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>727941293901945216</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>159.5474058545638</v>
+      </c>
+      <c r="E32" t="n">
+        <v>26.60660030793857</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8.819812615656852</v>
+      </c>
+      <c r="G32" t="n">
+        <v>8.663538932800293</v>
+      </c>
+      <c r="H32" t="n">
+        <v>9.052053451538086</v>
+      </c>
+      <c r="I32" t="n">
+        <v>7.845109462738037</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.206943988800049</v>
+      </c>
+      <c r="K32" t="n">
+        <v>27.90695360143703</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4622.434</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.79490715</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.34971967</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.7932835</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.8643877977705297</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.3225769456101388</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.990572175127872</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.592322895479342</v>
+      </c>
+      <c r="T32" t="n">
+        <v>4.327</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>HD 92049</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3514475531051071488</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3514475531051071488</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>3514475531051071488</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>184.3493663946538</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-21.05911576782686</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9.458169222965241</v>
+      </c>
+      <c r="G33" t="n">
+        <v>9.271246910095215</v>
+      </c>
+      <c r="H33" t="n">
+        <v>9.690939903259277</v>
+      </c>
+      <c r="I33" t="n">
+        <v>8.462708473205566</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.228231430053711</v>
+      </c>
+      <c r="K33" t="n">
+        <v>26.0621899238331</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4645.0156</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.74283576</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.25545588</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.7811913</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7376726807294338</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.4333976084751863</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3.588177390491897</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.558190702016025</v>
+      </c>
+      <c r="T33" t="n">
+        <v>4.4627</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>HD 106855</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3514475531051071488</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3514475535345385728</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>3514475531051071488</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>184.3493663946538</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-21.05911576782686</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9.458169222965241</v>
+      </c>
+      <c r="G34" t="n">
+        <v>9.271246910095215</v>
+      </c>
+      <c r="H34" t="n">
+        <v>9.690939903259277</v>
+      </c>
+      <c r="I34" t="n">
+        <v>8.462708473205566</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.228231430053711</v>
+      </c>
+      <c r="K34" t="n">
+        <v>26.0621899238331</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4645.0156</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.74283576</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.25545588</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.7811913</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.7376726807294338</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.4333976084751863</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3.588177390491897</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.558190702016025</v>
+      </c>
+      <c r="T34" t="n">
+        <v>4.4627</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>HD 106855</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Gaia DR2 3432475882293459840</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3432475882293459840</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>97.88634434785546</v>
+      </c>
+      <c r="E35" t="n">
+        <v>27.10855483929118</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10.07980391749382</v>
+      </c>
+      <c r="G35" t="n">
+        <v>10.05694580078125</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10.31572437286377</v>
+      </c>
+      <c r="I35" t="n">
+        <v>8.960945129394531</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.354779243469238</v>
+      </c>
+      <c r="K35" t="n">
+        <v>21.36568993799843</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4645.6787</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.74044</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.22665651</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.81463796</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.6948177901173901</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.5770721880845268</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4.62935638022878</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.369606922784593</v>
+      </c>
+      <c r="T35" t="n">
+        <v>4.6221</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5143341362661301632</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>5143341362664402304</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>5143341362661301632</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>33.94210610971113</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-18.23869646522409</v>
+      </c>
+      <c r="F36" t="n">
+        <v>8.357181956906318</v>
+      </c>
+      <c r="G36" t="n">
+        <v>8.106535911560059</v>
+      </c>
+      <c r="H36" t="n">
+        <v>8.589049339294434</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7.397109508514404</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.191939830780029</v>
+      </c>
+      <c r="K36" t="n">
+        <v>43.48141717601519</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4740.9375</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7467206</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.25883058</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.7541291</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7378264509364463</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.2623449790831408</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.177894457456911</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.741089250059133</v>
+      </c>
+      <c r="T36" t="n">
+        <v>4.5479</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>HD 14001</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>GJ 91.2</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>K4V</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>K4V</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5143341362661301632</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>5143341362661301632</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>5143341362661301632</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>33.94210610971113</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-18.23869646522409</v>
+      </c>
+      <c r="F37" t="n">
+        <v>8.357181956906318</v>
+      </c>
+      <c r="G37" t="n">
+        <v>8.106535911560059</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8.589049339294434</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7.397109508514404</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.191939830780029</v>
+      </c>
+      <c r="K37" t="n">
+        <v>43.48141717601519</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4740.9375</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.7467206</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.25883058</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.7541291</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.7378264509364463</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.2623449790831408</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2.177894457456911</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.741089250059133</v>
+      </c>
+      <c r="T37" t="n">
+        <v>4.5479</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>HD 14001</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>GJ 91.2</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>K4V</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>K4V</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Gaia DR3 6529537521961887360</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>6529537521961887360</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>6529537521961887360</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>349.0782848808363</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-44.54811803136538</v>
+      </c>
+      <c r="F38" t="n">
+        <v>9.34278066740036</v>
+      </c>
+      <c r="G38" t="n">
+        <v>9.08143424987793</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9.574522018432617</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8.387645721435547</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.18687629699707</v>
+      </c>
+      <c r="K38" t="n">
+        <v>26.52610327899782</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4751.388</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.8082248</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.27002048</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.7144457</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.7530806565565207</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.4132399582486376</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3.605770195373521</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.216279310902408</v>
+      </c>
+      <c r="T38" t="n">
+        <v>4.5325</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>HD 219437</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Gaia DR3 6529537521961887360</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>6529537526254976768</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>6529537521961887360</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>349.0782848808363</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-44.54811803136538</v>
+      </c>
+      <c r="F39" t="n">
+        <v>9.34278066740036</v>
+      </c>
+      <c r="G39" t="n">
+        <v>9.08143424987793</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9.574522018432617</v>
+      </c>
+      <c r="I39" t="n">
+        <v>8.387645721435547</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.18687629699707</v>
+      </c>
+      <c r="K39" t="n">
+        <v>26.52610327899782</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4751.388</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8082248</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.27002048</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.7144457</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.7530806565565207</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.4132399582486376</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3.605770195373521</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.216279310902408</v>
+      </c>
+      <c r="T39" t="n">
+        <v>4.5325</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>HD 219437</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5022972468944971648</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>5022972468946212352</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>5022972468944971648</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>23.75506775545655</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-29.90937914705131</v>
+      </c>
+      <c r="F40" t="n">
+        <v>9.776386098451614</v>
+      </c>
+      <c r="G40" t="n">
+        <v>10.23837089538574</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10.06632041931152</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6.541438102722168</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.524882316589355</v>
+      </c>
+      <c r="K40" t="n">
+        <v>45.76662580069102</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4775.29150390625</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.6982324719429016</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.209059250740197</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.5051059989083203</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>HD 9770</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5022972468944971648</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>5022972468944971648</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>5022972468944971648</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>23.75506775545655</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-29.90937914705131</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9.776386098451614</v>
+      </c>
+      <c r="G41" t="n">
+        <v>10.23837089538574</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10.06632041931152</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6.541438102722168</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.524882316589355</v>
+      </c>
+      <c r="K41" t="n">
+        <v>45.76662580069102</v>
+      </c>
+      <c r="L41" t="n">
+        <v>4775.29150390625</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.6982324719429016</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.209059250740197</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.5051059989083203</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>HD 9770</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Gaia DR3 4793337640125070592</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>4793337640125070592</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>4793337640125070592</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>83.4013014411382</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-51.06524371522803</v>
+      </c>
+      <c r="F42" t="n">
+        <v>9.501102766609192</v>
+      </c>
+      <c r="G42" t="n">
+        <v>9.53285026550293</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9.732413291931152</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8.562846183776855</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.169567108154297</v>
+      </c>
+      <c r="K42" t="n">
+        <v>22.23522398659873</v>
+      </c>
+      <c r="L42" t="n">
+        <v>4810.3965</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7803267</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.2598273</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.73392254</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.7358069077754573</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.4456025433568699</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3.776391178790798</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.973902921002595</v>
+      </c>
+      <c r="T42" t="n">
+        <v>4.6239</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>HD 37144</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Gaia DR3 4793337640125070592</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>4793337644418751360</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>4793337640125070592</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>83.4013014411382</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-51.06524371522803</v>
+      </c>
+      <c r="F43" t="n">
+        <v>9.501102766609192</v>
+      </c>
+      <c r="G43" t="n">
+        <v>9.53285026550293</v>
+      </c>
+      <c r="H43" t="n">
+        <v>9.732413291931152</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8.562846183776855</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.169567108154297</v>
+      </c>
+      <c r="K43" t="n">
+        <v>22.23522398659873</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4810.3965</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.7803267</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.2598273</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.73392254</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.7358069077754573</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.4456025433568699</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3.776391178790798</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.973902921002595</v>
+      </c>
+      <c r="T43" t="n">
+        <v>4.6239</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>HD 37144</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Gaia DR3 4038318261054205824</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>4038318261054205824</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>4038318261054205824</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>274.7728412408388</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-35.15701846200103</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8.542696573505401</v>
+      </c>
+      <c r="G44" t="n">
+        <v>8.731263160705566</v>
+      </c>
+      <c r="H44" t="n">
+        <v>8.775068283081055</v>
+      </c>
+      <c r="I44" t="n">
+        <v>7.5628662109375</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.212202072143555</v>
+      </c>
+      <c r="K44" t="n">
+        <v>32.3963536346529</v>
+      </c>
+      <c r="L44" t="n">
+        <v>4813</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.488815</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.009061007744572</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.2866223446450646</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2.843966194007203</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.812398724233949</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>HD 167981</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>89766</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>K3+Vk:</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>K3V</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Gaia DR3 1837182671876057472</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1837182676179555712</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1837182671876057472</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>304.5559314851151</v>
+      </c>
+      <c r="E45" t="n">
+        <v>29.20375314568851</v>
+      </c>
+      <c r="F45" t="n">
+        <v>8.80093085638523</v>
+      </c>
+      <c r="G45" t="n">
+        <v>8.813396453857422</v>
+      </c>
+      <c r="H45" t="n">
+        <v>9.03473949432373</v>
+      </c>
+      <c r="I45" t="n">
+        <v>7.764806270599365</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.269933223724365</v>
+      </c>
+      <c r="K45" t="n">
+        <v>29.77377608368313</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4862.6016</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.7625022</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.30370355</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.88247246</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.7927038700153246</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.3233865465689291</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2.811942185837636</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.109526343983561</v>
+      </c>
+      <c r="T45" t="n">
+        <v>4.5967</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>HD 334100</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Gaia DR3 1837182671876057472</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1837182676173127680</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1837182671876057472</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>304.5559314851151</v>
+      </c>
+      <c r="E46" t="n">
+        <v>29.20375314568851</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8.80093085638523</v>
+      </c>
+      <c r="G46" t="n">
+        <v>8.813396453857422</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9.03473949432373</v>
+      </c>
+      <c r="I46" t="n">
+        <v>7.764806270599365</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.269933223724365</v>
+      </c>
+      <c r="K46" t="n">
+        <v>29.77377608368313</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4862.6016</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.7625022</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.30370355</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.88247246</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.7927038700153246</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.3233865465689291</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2.811942185837636</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.109526343983561</v>
+      </c>
+      <c r="T46" t="n">
+        <v>4.5967</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>HD 334100</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3365325889687901568</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>3365325889687901568</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3365325889687901568</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>102.9148687524547</v>
+      </c>
+      <c r="E47" t="n">
+        <v>18.46892678989488</v>
+      </c>
+      <c r="F47" t="n">
+        <v>9.737071839427948</v>
+      </c>
+      <c r="G47" t="n">
+        <v>9.498326301574707</v>
+      </c>
+      <c r="H47" t="n">
+        <v>9.968006134033203</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8.813554763793945</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.154451370239258</v>
+      </c>
+      <c r="K47" t="n">
+        <v>21.87891020456964</v>
+      </c>
+      <c r="L47" t="n">
+        <v>4863.541</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7983776</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.2727426</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.73558134</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.7511640653553097</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.49769516275803</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4.310667327132657</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.005932119778815</v>
+      </c>
+      <c r="T47" t="n">
+        <v>4.5978</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Gaia DR3 6516282565692522880</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>6516282565692522880</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>6516282565692522880</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>342.9631096324575</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-46.77670759381172</v>
+      </c>
+      <c r="F48" t="n">
+        <v>9.52992461227417</v>
+      </c>
+      <c r="G48" t="n">
+        <v>9.339752197265625</v>
+      </c>
+      <c r="H48" t="n">
+        <v>9.759723663330078</v>
+      </c>
+      <c r="I48" t="n">
+        <v>8.650882720947266</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.108840942382812</v>
+      </c>
+      <c r="K48" t="n">
+        <v>23.33054189230387</v>
+      </c>
+      <c r="L48" t="n">
+        <v>4885.6772</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8089757</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.270847</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.68906665</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.7474221262912848</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.4527241326437291</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3.937254846350212</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2.47258814811368</v>
+      </c>
+      <c r="T48" t="n">
+        <v>4.5685</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>HD 216224</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Gaia DR3 6516282565692522880</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>6516282569985457920</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>6516282565692522880</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>342.9631096324575</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-46.77670759381172</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9.52992461227417</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9.339752197265625</v>
+      </c>
+      <c r="H49" t="n">
+        <v>9.759723663330078</v>
+      </c>
+      <c r="I49" t="n">
+        <v>8.650882720947266</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.108840942382812</v>
+      </c>
+      <c r="K49" t="n">
+        <v>23.33054189230387</v>
+      </c>
+      <c r="L49" t="n">
+        <v>4885.6772</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.8089757</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.270847</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.68906665</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.7474221262912848</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.4527241326437291</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3.937254846350212</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2.47258814811368</v>
+      </c>
+      <c r="T49" t="n">
+        <v>4.5685</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>HD 216224</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Gaia DR3 4692276170589724288</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>4692276170589724288</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4692276170589724288</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>18.75870298384468</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-68.81856519233126</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7.367044018716812</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7.494877815246582</v>
+      </c>
+      <c r="H50" t="n">
+        <v>7.600164890289307</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6.357863903045654</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.242300987243652</v>
+      </c>
+      <c r="K50" t="n">
+        <v>47.43583184213541</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4966.4697</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.3871666</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.9418811</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.8886885077662912</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.167546553979916</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.599648175260578</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.9813537929873605</v>
+      </c>
+      <c r="T50" t="n">
+        <v>4.5314</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>HD 7693</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>GJ 55.1</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>K2V</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>K2V</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Gaia DR3 4692276170589724288</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>4692276170590701952</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>4692276170589724288</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>18.75870298384468</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-68.81856519233126</v>
+      </c>
+      <c r="F51" t="n">
+        <v>7.367044018716812</v>
+      </c>
+      <c r="G51" t="n">
+        <v>7.494877815246582</v>
+      </c>
+      <c r="H51" t="n">
+        <v>7.600164890289307</v>
+      </c>
+      <c r="I51" t="n">
+        <v>6.357863903045654</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.242300987243652</v>
+      </c>
+      <c r="K51" t="n">
+        <v>47.43583184213541</v>
+      </c>
+      <c r="L51" t="n">
+        <v>4966.4697</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.3871666</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.9418811</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.8886885077662912</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.167546553979916</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.599648175260578</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.9813537929873605</v>
+      </c>
+      <c r="T51" t="n">
+        <v>4.5314</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>HD 7693</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>GJ 55.1</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>K2V</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>K2V</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Gaia DR3 4359814876901570688</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>4359814881197436800</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>4359814876901570688</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>258.5331734204428</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-8.40352786377272</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8.483094360499383</v>
+      </c>
+      <c r="G52" t="n">
+        <v>8.287763595581055</v>
+      </c>
+      <c r="H52" t="n">
+        <v>8.713289260864258</v>
+      </c>
+      <c r="I52" t="n">
+        <v>7.588544368743896</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.124744892120361</v>
+      </c>
+      <c r="K52" t="n">
+        <v>33.66001632130207</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5001.39</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.8088791400000001</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.3409794</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.77771384</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.8319922482057693</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.2805375548727275</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2.573952538187669</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.719586998299298</v>
+      </c>
+      <c r="T52" t="n">
+        <v>4.5438</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>HD 155802</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Gaia DR3 4359814876901570688</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>4359814876901570688</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>4359814876901570688</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>258.5331734204428</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-8.40352786377272</v>
+      </c>
+      <c r="F53" t="n">
+        <v>8.483094360499383</v>
+      </c>
+      <c r="G53" t="n">
+        <v>8.287763595581055</v>
+      </c>
+      <c r="H53" t="n">
+        <v>8.713289260864258</v>
+      </c>
+      <c r="I53" t="n">
+        <v>7.588544368743896</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.124744892120361</v>
+      </c>
+      <c r="K53" t="n">
+        <v>33.66001632130207</v>
+      </c>
+      <c r="L53" t="n">
+        <v>5001.39</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8088791400000001</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.3409794</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.77771384</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.8319922482057693</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.2805375548727275</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2.573952538187669</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1.719586998299298</v>
+      </c>
+      <c r="T53" t="n">
+        <v>4.5438</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>HD 155802</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3054910392543754752</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>3054910392548138752</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>3054910392543754752</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>110.7523266416053</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-7.097249837721687</v>
+      </c>
+      <c r="F54" t="n">
+        <v>9.129670983629227</v>
+      </c>
+      <c r="G54" t="n">
+        <v>9.015840530395508</v>
+      </c>
+      <c r="H54" t="n">
+        <v>9.36014461517334</v>
+      </c>
+      <c r="I54" t="n">
+        <v>8.224201202392578</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.135943412780762</v>
+      </c>
+      <c r="K54" t="n">
+        <v>20.23988167808039</v>
+      </c>
+      <c r="L54" t="n">
+        <v>5071.9604</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.8175997</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.47036386</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.8884851</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.9724087438987348</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.3946334342400789</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3.935480808604712</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.165709340430787</v>
+      </c>
+      <c r="T54" t="n">
+        <v>4.4643</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>HD 57903</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3054910392543754752</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>3054910392543754752</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>3054910392543754752</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>110.7523266416053</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-7.097249837721687</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9.129670983629227</v>
+      </c>
+      <c r="G55" t="n">
+        <v>9.015840530395508</v>
+      </c>
+      <c r="H55" t="n">
+        <v>9.36014461517334</v>
+      </c>
+      <c r="I55" t="n">
+        <v>8.224201202392578</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.135943412780762</v>
+      </c>
+      <c r="K55" t="n">
+        <v>20.23988167808039</v>
+      </c>
+      <c r="L55" t="n">
+        <v>5071.9604</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.8175997</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.47036386</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.8884851</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.9724087438987348</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.3946334342400789</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3.935480808604712</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1.165709340430787</v>
+      </c>
+      <c r="T55" t="n">
+        <v>4.4643</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>HD 57903</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5658870380306370816</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>5658870380304596096</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>5658870380306370816</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>148.7756465994782</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-26.53911531592303</v>
+      </c>
+      <c r="F56" t="n">
+        <v>8.475432907528877</v>
+      </c>
+      <c r="G56" t="n">
+        <v>9.313597679138184</v>
+      </c>
+      <c r="H56" t="n">
+        <v>8.702792167663574</v>
+      </c>
+      <c r="I56" t="n">
+        <v>7.69197416305542</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.010818004608154</v>
+      </c>
+      <c r="K56" t="n">
+        <v>23.95320348251371</v>
+      </c>
+      <c r="L56" t="n">
+        <v>5081.595703125</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.2992264628410339</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.7750700821192844</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.2936645953096164</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.57006281730071</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>HD 85994</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Gaia DR2 4373199678620639744</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>4373199678620639744</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>262.5984522008857</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-1.063482522283796</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5.779087543487549</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5.779087543487549</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5.516704082489014</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4.666037559509277</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.8506665229797363</v>
+      </c>
+      <c r="K57" t="n">
+        <v>58.50100412477151</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5095.6333</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.737800717353821</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.866021935288788</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.08554652706424029</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.313494580897528</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>HD 158614</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>GJ 678</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Gaia DR2 5902780301768699392</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>5902780301768699392</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>230.6496660485833</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-47.92215149907705</v>
+      </c>
+      <c r="F58" t="n">
+        <v>7.919912338256836</v>
+      </c>
+      <c r="G58" t="n">
+        <v>7.919912338256836</v>
+      </c>
+      <c r="H58" t="n">
+        <v>7.880195617675781</v>
+      </c>
+      <c r="I58" t="n">
+        <v>6.978649139404297</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.9015464782714844</v>
+      </c>
+      <c r="K58" t="n">
+        <v>23.55145406341767</v>
+      </c>
+      <c r="L58" t="n">
+        <v>5095.6333</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.8090958595275879</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.273258980174683</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.2292806171932859</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>HD 136466</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>GJ 9519</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Gaia DR2 4852656399816716672</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>4852656399816716672</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>50.57031694307243</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-41.31506369503393</v>
+      </c>
+      <c r="F59" t="n">
+        <v>8.951362609863281</v>
+      </c>
+      <c r="G59" t="n">
+        <v>8.951362609863281</v>
+      </c>
+      <c r="H59" t="n">
+        <v>8.81043529510498</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7.908865451812744</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.9015698432922363</v>
+      </c>
+      <c r="K59" t="n">
+        <v>21.40826432628667</v>
+      </c>
+      <c r="L59" t="n">
+        <v>5095.6333</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.247383236885071</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.580944813871856</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.3686866365724507</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4.918657287042992</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>HD 21058</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Gaia DR2 6508776375900830592</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>6508776375900830592</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>334.5689175424271</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-53.62944421386503</v>
+      </c>
+      <c r="F60" t="n">
+        <v>8.844846071615219</v>
+      </c>
+      <c r="G60" t="n">
+        <v>9.186453819274902</v>
+      </c>
+      <c r="H60" t="n">
+        <v>9.083861351013184</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7.604742050170898</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.479119300842285</v>
+      </c>
+      <c r="K60" t="n">
+        <v>72.96099165096082</v>
+      </c>
+      <c r="L60" t="n">
+        <v>5095.6333</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.116863131523132</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.495948821408732</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.3510379654317135</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4.427222099611842</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>HD 211415</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>GJ 853</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Gaia DR2 4373199682919087616</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>4373199682919087616</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>262.5985706282946</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-1.063643439256715</v>
+      </c>
+      <c r="F61" t="n">
+        <v>5.801146030426025</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5.801146030426025</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5.528494358062744</v>
+      </c>
+      <c r="I61" t="n">
+        <v>4.63510799407959</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.8933863639831543</v>
+      </c>
+      <c r="K61" t="n">
+        <v>60.7131712466523</v>
+      </c>
+      <c r="L61" t="n">
+        <v>5095.6333</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.737800717353821</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.866021935288788</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.0864199638987794</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.326905491313953</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>HD 158614</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>GJ 678</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5721995606302873472</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>5721995606302873472</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>5721995606302873472</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>127.2367232958791</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-15.87111139245934</v>
+      </c>
+      <c r="F62" t="n">
+        <v>8.481534402222634</v>
+      </c>
+      <c r="G62" t="n">
+        <v>8.257269859313965</v>
+      </c>
+      <c r="H62" t="n">
+        <v>8.712482452392578</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7.557478427886963</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.155004024505615</v>
+      </c>
+      <c r="K62" t="n">
+        <v>27.75807780631688</v>
+      </c>
+      <c r="L62" t="n">
+        <v>5100</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.84743613</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.65909564</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.0212917</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1.148838348907491</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.2977217796920535</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3.285504593610034</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.7955318443349693</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>HD 71811</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>41609</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>SB*</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>K2V</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>K2V</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Gaia DR2 2479271422099897600</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2479271422099897600</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>25.59811136623728</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-6.755083672909564</v>
+      </c>
+      <c r="F63" t="n">
+        <v>8.503087043762207</v>
+      </c>
+      <c r="G63" t="n">
+        <v>8.503087043762207</v>
+      </c>
+      <c r="H63" t="n">
+        <v>8.206989288330078</v>
+      </c>
+      <c r="I63" t="n">
+        <v>7.603748321533203</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.603240966796875</v>
+      </c>
+      <c r="K63" t="n">
+        <v>23.86884394430444</v>
+      </c>
+      <c r="L63" t="n">
+        <v>5101.71</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N63" t="n">
+        <v>3.837072849273682</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2.771615638694938</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.3009943593296405</v>
+      </c>
+      <c r="R63" t="n">
+        <v>6.113750102170825</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>HD 10508</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5298126490756239360</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>5298126490756239360</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>5298126490756239360</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>136.775818748439</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-61.76393076290197</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8.632356628084183</v>
+      </c>
+      <c r="G64" t="n">
+        <v>8.538240432739258</v>
+      </c>
+      <c r="H64" t="n">
+        <v>8.860435485839844</v>
+      </c>
+      <c r="I64" t="n">
+        <v>7.820706367492676</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.039729118347168</v>
+      </c>
+      <c r="K64" t="n">
+        <v>21.10703132305835</v>
+      </c>
+      <c r="L64" t="n">
+        <v>5128.6142578125</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.89609134</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.9532117</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.0542226</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.37883732242413</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.3245071067729702</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4.034277771943644</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.7648130921166777</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>HD 78762</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Gaia DR3 6694723750874149120</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>6694723755167180160</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>6694723750874149120</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>306.7196691032941</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-37.40366780388616</v>
+      </c>
+      <c r="F65" t="n">
+        <v>7.738671334810257</v>
+      </c>
+      <c r="G65" t="n">
+        <v>7.828013896942139</v>
+      </c>
+      <c r="H65" t="n">
+        <v>7.967041492462158</v>
+      </c>
+      <c r="I65" t="n">
+        <v>6.915608882904053</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.051432609558105</v>
+      </c>
+      <c r="K65" t="n">
+        <v>25.42710289059647</v>
+      </c>
+      <c r="L65" t="n">
+        <v>5170</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.4073802778041127</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.8987986457204864</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.2201544372019692</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.164788685467703</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1.698726598789278</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>HD 194433</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>GJ 9695</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>K1V</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>K1V</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Gaia DR3 6694723750874149120</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>6694723750874149120</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>6694723750874149120</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>306.7196691032941</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-37.40366780388616</v>
+      </c>
+      <c r="F66" t="n">
+        <v>7.738671334810257</v>
+      </c>
+      <c r="G66" t="n">
+        <v>7.828013896942139</v>
+      </c>
+      <c r="H66" t="n">
+        <v>7.967041492462158</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6.915608882904053</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.051432609558105</v>
+      </c>
+      <c r="K66" t="n">
+        <v>25.42710289059647</v>
+      </c>
+      <c r="L66" t="n">
+        <v>5170</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.4073802778041127</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.8987986457204864</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.2201544372019692</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2.164788685467703</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.698726598789278</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>HD 194433</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>GJ 9695</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>K1V</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>K1V</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Gaia DR3 6036143915376785280</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>6036143915373978880</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>6036143915376785280</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>241.4113443811953</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-32.86337537963266</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8.180990219116211</v>
+      </c>
+      <c r="G67" t="n">
+        <v>8.180990219116211</v>
+      </c>
+      <c r="H67" t="n">
+        <v>8.094931602478027</v>
+      </c>
+      <c r="I67" t="n">
+        <v>7.108153343200684</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.9867782592773438</v>
+      </c>
+      <c r="K67" t="n">
+        <v>23.48295373861363</v>
+      </c>
+      <c r="L67" t="n">
+        <v>5187.99951171875</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.037528395652771</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1.432567908285407</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.2726204371275389</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>HD 144179</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>GJ 9543</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3511580658668406528</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>3511580654376012928</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>3511580658668406528</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>198.5401532777758</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-16.55934892338726</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8.722311514062881</v>
+      </c>
+      <c r="G68" t="n">
+        <v>8.633933067321777</v>
+      </c>
+      <c r="H68" t="n">
+        <v>8.951865196228027</v>
+      </c>
+      <c r="I68" t="n">
+        <v>7.852882385253906</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.098982810974121</v>
+      </c>
+      <c r="K68" t="n">
+        <v>21.58724424903523</v>
+      </c>
+      <c r="L68" t="n">
+        <v>5276.5537</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.9330778</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.55322</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.7985513</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1.039598001424554</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.3669392155285805</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4.041984029458874</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1.832354055113297</v>
+      </c>
+      <c r="T68" t="n">
+        <v>4.4493</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>HD 114944</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3511580658668406528</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>3511580658668406528</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>3511580658668406528</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>198.5401532777758</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-16.55934892338726</v>
+      </c>
+      <c r="F69" t="n">
+        <v>8.722311514062881</v>
+      </c>
+      <c r="G69" t="n">
+        <v>8.633933067321777</v>
+      </c>
+      <c r="H69" t="n">
+        <v>8.951865196228027</v>
+      </c>
+      <c r="I69" t="n">
+        <v>7.852882385253906</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.098982810974121</v>
+      </c>
+      <c r="K69" t="n">
+        <v>21.58724424903523</v>
+      </c>
+      <c r="L69" t="n">
+        <v>5276.5537</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.9330778</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.55322</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.7985513</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1.039598001424554</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.3669392155285805</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4.041984029458874</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1.832354055113297</v>
+      </c>
+      <c r="T69" t="n">
+        <v>4.4493</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>HD 114944</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Gaia DR3 2987621174274242176</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2987621174275697792</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2987621174274242176</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>76.48017606391926</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-13.91348665168485</v>
+      </c>
+      <c r="F70" t="n">
+        <v>9.350057601928711</v>
+      </c>
+      <c r="G70" t="n">
+        <v>9.350057601928711</v>
+      </c>
+      <c r="H70" t="n">
+        <v>8.674954414367676</v>
+      </c>
+      <c r="I70" t="n">
+        <v>7.840279579162598</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.8346748352050781</v>
+      </c>
+      <c r="K70" t="n">
+        <v>20.7483457790192</v>
+      </c>
+      <c r="L70" t="n">
+        <v>5296.63427734375</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1.330454349517822</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1.609916440069212</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.495105032708222</v>
+      </c>
+      <c r="R70" t="n">
+        <v>6.955408913864183</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>HD 32915</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Gaia DR3 6522076205992297984</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>6522076205992297984</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>6522076205992297984</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>357.6441295044767</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-51.70583452011286</v>
+      </c>
+      <c r="F71" t="n">
+        <v>8.301356315612793</v>
+      </c>
+      <c r="G71" t="n">
+        <v>8.301356315612793</v>
+      </c>
+      <c r="H71" t="n">
+        <v>7.85187292098999</v>
+      </c>
+      <c r="I71" t="n">
+        <v>6.919745445251465</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.9321274757385254</v>
+      </c>
+      <c r="K71" t="n">
+        <v>28.50758404889105</v>
+      </c>
+      <c r="L71" t="n">
+        <v>5357.9677734375</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1.294195532798767</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1.58098906887782</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.315162400789378</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4.204643012513045</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>HD 223551</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Gaia DR3 6522076205992297984</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>6522076201694155392</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>6522076205992297984</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>357.6441295044767</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-51.70583452011286</v>
+      </c>
+      <c r="F72" t="n">
+        <v>8.301356315612793</v>
+      </c>
+      <c r="G72" t="n">
+        <v>8.301356315612793</v>
+      </c>
+      <c r="H72" t="n">
+        <v>7.85187292098999</v>
+      </c>
+      <c r="I72" t="n">
+        <v>6.919745445251465</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.9321274757385254</v>
+      </c>
+      <c r="K72" t="n">
+        <v>28.50758404889105</v>
+      </c>
+      <c r="L72" t="n">
+        <v>5357.9677734375</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1.294195532798767</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1.58098906887782</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.315162400789378</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4.204643012513045</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>HD 223551</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Gaia DR3 4930557382758702336</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>4930557382760649344</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>4930557382758702336</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>21.48321421939189</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-47.89929673543216</v>
+      </c>
+      <c r="F73" t="n">
+        <v>9.308420181274414</v>
+      </c>
+      <c r="G73" t="n">
+        <v>9.308420181274414</v>
+      </c>
+      <c r="H73" t="n">
+        <v>8.511561393737793</v>
+      </c>
+      <c r="I73" t="n">
+        <v>7.599926471710205</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.9116349220275879</v>
+      </c>
+      <c r="K73" t="n">
+        <v>26.73124213251966</v>
+      </c>
+      <c r="L73" t="n">
+        <v>5395.107421875</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.9289664626121521</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1.335959444040997</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.5104309493825193</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>HD 8821</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Gaia DR3 6298476051032199936</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>6298476051032199936</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>6298476051032199936</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>217.8337361899387</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-15.64037537479623</v>
+      </c>
+      <c r="F74" t="n">
+        <v>8.668020908975601</v>
+      </c>
+      <c r="G74" t="n">
+        <v>9.035721778869629</v>
+      </c>
+      <c r="H74" t="n">
+        <v>8.90089225769043</v>
+      </c>
+      <c r="I74" t="n">
+        <v>7.66861629486084</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.23227596282959</v>
+      </c>
+      <c r="K74" t="n">
+        <v>22.44221926782221</v>
+      </c>
+      <c r="L74" t="n">
+        <v>5420.00830078125</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1.056817412376404</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1.42243293326062</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.3846989033937653</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>HD 127356</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>GJ 3854</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>K3?</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>K3</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Gaia DR3 4187404036259094528</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>4187404036259094528</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>4187404036259094528</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>292.0512585965648</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-12.145184777159</v>
+      </c>
+      <c r="F75" t="n">
+        <v>8.213438034057617</v>
+      </c>
+      <c r="G75" t="n">
+        <v>8.213438034057617</v>
+      </c>
+      <c r="H75" t="n">
+        <v>7.808540344238281</v>
+      </c>
+      <c r="I75" t="n">
+        <v>6.908134937286377</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.9004054069519043</v>
+      </c>
+      <c r="K75" t="n">
+        <v>26.82442894269294</v>
+      </c>
+      <c r="L75" t="n">
+        <v>5420.00830078125</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1.169499516487122</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1.496345362682627</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.3120357638428875</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4.049957608090759</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>HD 183063</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Gaia DR3 6298476051032199936</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>6298476252895259520</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>6298476051032199936</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>217.8337361899387</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-15.64037537479623</v>
+      </c>
+      <c r="F76" t="n">
+        <v>8.668020908975601</v>
+      </c>
+      <c r="G76" t="n">
+        <v>9.035721778869629</v>
+      </c>
+      <c r="H76" t="n">
+        <v>8.90089225769043</v>
+      </c>
+      <c r="I76" t="n">
+        <v>7.66861629486084</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.23227596282959</v>
+      </c>
+      <c r="K76" t="n">
+        <v>22.44221926782221</v>
+      </c>
+      <c r="L76" t="n">
+        <v>5420.00830078125</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1.056817412376404</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1.42243293326062</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.3846989033937653</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>HD 127356</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>GJ 3854</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>K3?</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>K3</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Gaia DR3 4187404036259094528</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>4187404036266621952</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>4187404036259094528</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>292.0512585965648</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-12.145184777159</v>
+      </c>
+      <c r="F77" t="n">
+        <v>8.213438034057617</v>
+      </c>
+      <c r="G77" t="n">
+        <v>8.213438034057617</v>
+      </c>
+      <c r="H77" t="n">
+        <v>7.808540344238281</v>
+      </c>
+      <c r="I77" t="n">
+        <v>6.908134937286377</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.9004054069519043</v>
+      </c>
+      <c r="K77" t="n">
+        <v>26.82442894269294</v>
+      </c>
+      <c r="L77" t="n">
+        <v>5420.00830078125</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1.169499516487122</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1.496345362682627</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.3120357638428875</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4.049957608090759</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>HD 183063</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Gaia DR3 6090772806986004736</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>6090772806986004736</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>6090772806986004736</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>211.9227384532352</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-49.86712615268159</v>
+      </c>
+      <c r="F78" t="n">
+        <v>6.927093982696533</v>
+      </c>
+      <c r="G78" t="n">
+        <v>6.927093982696533</v>
+      </c>
+      <c r="H78" t="n">
+        <v>6.834463596343994</v>
+      </c>
+      <c r="I78" t="n">
+        <v>6.0585618019104</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.7759017944335938</v>
+      </c>
+      <c r="K78" t="n">
+        <v>22.22509722248765</v>
+      </c>
+      <c r="L78" t="n">
+        <v>5460</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.0792615</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2.4486856</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.4932822</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2.159114941997539</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.175889201186351</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3.002950748064471</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.3241164100767364</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>HD 123227</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>69012</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>G3V</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>G3V</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3171831011634286592</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>3171831011634286592</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>3171831011634286592</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>66.8833098027736</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-17.10817232248325</v>
+      </c>
+      <c r="F79" t="n">
+        <v>8.303252220153809</v>
+      </c>
+      <c r="G79" t="n">
+        <v>8.303252220153809</v>
+      </c>
+      <c r="H79" t="n">
+        <v>8.636276245117188</v>
+      </c>
+      <c r="I79" t="n">
+        <v>7.753710746765137</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.8825654983520508</v>
+      </c>
+      <c r="K79" t="n">
+        <v>21.1276775947968</v>
+      </c>
+      <c r="L79" t="n">
+        <v>5563.6636</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.98363906</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.7839283</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.8937775999999999</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1.212784413848901</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.3476851126682783</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4.247218376553381</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1.377676872418131</v>
+      </c>
+      <c r="T79" t="n">
+        <v>4.3992</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>HD 28338</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3171831011634286592</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>3171831015929051648</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>3171831011634286592</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>66.8833098027736</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-17.10817232248325</v>
+      </c>
+      <c r="F80" t="n">
+        <v>8.303252220153809</v>
+      </c>
+      <c r="G80" t="n">
+        <v>8.303252220153809</v>
+      </c>
+      <c r="H80" t="n">
+        <v>8.636276245117188</v>
+      </c>
+      <c r="I80" t="n">
+        <v>7.753710746765137</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.8825654983520508</v>
+      </c>
+      <c r="K80" t="n">
+        <v>21.1276775947968</v>
+      </c>
+      <c r="L80" t="n">
+        <v>5563.6636</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.98363906</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.7839283</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.8937775999999999</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1.212784413848901</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.3476851126682783</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4.247218376553381</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1.377676872418131</v>
+      </c>
+      <c r="T80" t="n">
+        <v>4.3992</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>HD 28338</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Gaia DR3 6700048793058633728</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>6700048793060566272</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>6700048793058633728</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>304.2281048451101</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-32.60714956818644</v>
+      </c>
+      <c r="F81" t="n">
+        <v>7.925349235534668</v>
+      </c>
+      <c r="G81" t="n">
+        <v>7.925349235534668</v>
+      </c>
+      <c r="H81" t="n">
+        <v>8.081098556518555</v>
+      </c>
+      <c r="I81" t="n">
+        <v>7.249317169189453</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.8317813873291016</v>
+      </c>
+      <c r="K81" t="n">
+        <v>23.24782813319328</v>
+      </c>
+      <c r="L81" t="n">
+        <v>5622.66</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.99712044</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.91279477</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.9530098</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1.303279155377563</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.2998549474520414</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3.823069976136002</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1.152008064042152</v>
+      </c>
+      <c r="T81" t="n">
+        <v>4.3856</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>HD 192614</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Gaia DR3 6700048793058633728</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>6700048793058633728</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>6700048793058633728</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>304.2281048451101</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-32.60714956818644</v>
+      </c>
+      <c r="F82" t="n">
+        <v>7.925349235534668</v>
+      </c>
+      <c r="G82" t="n">
+        <v>7.925349235534668</v>
+      </c>
+      <c r="H82" t="n">
+        <v>8.081098556518555</v>
+      </c>
+      <c r="I82" t="n">
+        <v>7.249317169189453</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.8317813873291016</v>
+      </c>
+      <c r="K82" t="n">
+        <v>23.24782813319328</v>
+      </c>
+      <c r="L82" t="n">
+        <v>5622.66</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.99712044</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.91279477</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.9530098</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1.303279155377563</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.2998549474520414</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3.823069976136002</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1.152008064042152</v>
+      </c>
+      <c r="T82" t="n">
+        <v>4.3856</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>HD 192614</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Gaia DR3 4367026096927711104</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>4367026096927711104</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>260.7211862464831</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-2.400001939421211</v>
+      </c>
+      <c r="F83" t="n">
+        <v>12.19185947054863</v>
+      </c>
+      <c r="G83" t="n">
+        <v>11.72702884674072</v>
+      </c>
+      <c r="H83" t="n">
+        <v>12.45837116241455</v>
+      </c>
+      <c r="I83" t="n">
+        <v>9.874534606933594</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.583836555480957</v>
+      </c>
+      <c r="K83" t="n">
+        <v>50.98761649833325</v>
+      </c>
+      <c r="L83" t="n">
+        <v>5623.4130859375</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.990831732749939</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1.357775481512021</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2.139712606446273</v>
+      </c>
+      <c r="R83" t="n">
+        <v>26.45549149745841</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>HD 157347</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Gaia DR3 4367026096925086464</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>4367026096925086464</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>260.7213901891552</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-2.400003008904827</v>
+      </c>
+      <c r="F84" t="n">
+        <v>12.22139053729057</v>
+      </c>
+      <c r="G84" t="n">
+        <v>11.73600482940674</v>
+      </c>
+      <c r="H84" t="n">
+        <v>12.48750686645508</v>
+      </c>
+      <c r="I84" t="n">
+        <v>9.919554710388184</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.567952156066895</v>
+      </c>
+      <c r="K84" t="n">
+        <v>51.04305528202596</v>
+      </c>
+      <c r="L84" t="n">
+        <v>5623.4130859375</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.990831732749939</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1.357775481512021</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2.169010521691387</v>
+      </c>
+      <c r="R84" t="n">
+        <v>26.81774828131384</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>HD 157347</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Gaia DR3 2624387200116495872</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2624387195821278592</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2624387200116495872</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>341.9581161040202</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-4.230435417662797</v>
+      </c>
+      <c r="F85" t="n">
+        <v>7.134560108184814</v>
+      </c>
+      <c r="G85" t="n">
+        <v>7.134560108184814</v>
+      </c>
+      <c r="H85" t="n">
+        <v>7.391891479492188</v>
+      </c>
+      <c r="I85" t="n">
+        <v>6.440597057342529</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.9512944221496582</v>
+      </c>
+      <c r="K85" t="n">
+        <v>29.86231015443899</v>
+      </c>
+      <c r="L85" t="n">
+        <v>5649.37109375</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.9476114</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1.1749887</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1.1350738</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1.475901075099894</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.2107484436590255</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2.787507545564385</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.6479745948251433</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>HD 215812</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Gaia DR3 2624387200116495872</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2624387200116495872</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2624387200116495872</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>341.9581161040202</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-4.230435417662797</v>
+      </c>
+      <c r="F86" t="n">
+        <v>7.134560108184814</v>
+      </c>
+      <c r="G86" t="n">
+        <v>7.134560108184814</v>
+      </c>
+      <c r="H86" t="n">
+        <v>7.391891479492188</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6.440597057342529</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.9512944221496582</v>
+      </c>
+      <c r="K86" t="n">
+        <v>29.86231015443899</v>
+      </c>
+      <c r="L86" t="n">
+        <v>5649.37109375</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.9476114</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1.1749887</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.1350738</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1.475901075099894</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.2107484436590255</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2.787507545564385</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.6479745948251433</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>HD 215812</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3235618049143149440</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>3235618049144649984</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>3235618049143149440</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>78.35413372233333</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.687566082731865</v>
+      </c>
+      <c r="F87" t="n">
+        <v>10.69478130340576</v>
+      </c>
+      <c r="G87" t="n">
+        <v>10.69478130340576</v>
+      </c>
+      <c r="H87" t="n">
+        <v>8.010096549987793</v>
+      </c>
+      <c r="I87" t="n">
+        <v>7.171306610107422</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.8387899398803711</v>
+      </c>
+      <c r="K87" t="n">
+        <v>24.00940606315423</v>
+      </c>
+      <c r="L87" t="n">
+        <v>5662.39306640625</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1.393157005310059</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1.605631385048239</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1.092013470097436</v>
+      </c>
+      <c r="R87" t="n">
+        <v>14.76346113488308</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>HD 33866</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3094474012068463360</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>3094474012068463360</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>3094474012068463360</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>120.6089301875462</v>
+      </c>
+      <c r="E88" t="n">
+        <v>4.15161626779043</v>
+      </c>
+      <c r="F88" t="n">
+        <v>7.683480262756348</v>
+      </c>
+      <c r="G88" t="n">
+        <v>7.683480262756348</v>
+      </c>
+      <c r="H88" t="n">
+        <v>7.956566333770752</v>
+      </c>
+      <c r="I88" t="n">
+        <v>7.136843204498291</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.8197231292724609</v>
+      </c>
+      <c r="K88" t="n">
+        <v>23.90384383034208</v>
+      </c>
+      <c r="L88" t="n">
+        <v>5662.788</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.9938662</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1.081121</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.0342262</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1.414395960500323</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.2729234956732359</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3.619084790062528</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.8984239370865401</v>
+      </c>
+      <c r="T88" t="n">
+        <v>4.3233</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>HD 66177</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5067926345443627648</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>5067926345444283648</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>5067926345443627648</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>35.80985383704027</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-29.87020992998755</v>
+      </c>
+      <c r="F89" t="n">
+        <v>7.785018444061279</v>
+      </c>
+      <c r="G89" t="n">
+        <v>7.785018444061279</v>
+      </c>
+      <c r="H89" t="n">
+        <v>7.986093521118164</v>
+      </c>
+      <c r="I89" t="n">
+        <v>7.100562572479248</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.885530948638916</v>
+      </c>
+      <c r="K89" t="n">
+        <v>24.53532650821046</v>
+      </c>
+      <c r="L89" t="n">
+        <v>5730.519</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.9831912</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.9669775</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.9976335</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1.331361964662541</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.294232241659538</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3.76500724205152</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.9902045338177325</v>
+      </c>
+      <c r="T89" t="n">
+        <v>4.3852</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>HD 14882</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5067926345443627648</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>5067926345443627648</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>5067926345443627648</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>35.80985383704027</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-29.87020992998755</v>
+      </c>
+      <c r="F90" t="n">
+        <v>7.785018444061279</v>
+      </c>
+      <c r="G90" t="n">
+        <v>7.785018444061279</v>
+      </c>
+      <c r="H90" t="n">
+        <v>7.986093521118164</v>
+      </c>
+      <c r="I90" t="n">
+        <v>7.100562572479248</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.885530948638916</v>
+      </c>
+      <c r="K90" t="n">
+        <v>24.53532650821046</v>
+      </c>
+      <c r="L90" t="n">
+        <v>5730.519</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.9831912</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.9669775</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.9976335</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1.331361964662541</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.294232241659538</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3.76500724205152</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.9902045338177325</v>
+      </c>
+      <c r="T90" t="n">
+        <v>4.3852</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>HD 14882</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3312536923393893120</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>3312536923393893120</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>3312536923393893120</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>67.53644292906253</v>
+      </c>
+      <c r="E91" t="n">
+        <v>15.6381385358323</v>
+      </c>
+      <c r="F91" t="n">
+        <v>7.672853330383301</v>
+      </c>
+      <c r="G91" t="n">
+        <v>7.944008827209473</v>
+      </c>
+      <c r="H91" t="n">
+        <v>7.905549049377441</v>
+      </c>
+      <c r="I91" t="n">
+        <v>6.680329322814941</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.2252197265625</v>
+      </c>
+      <c r="K91" t="n">
+        <v>21.33769931920589</v>
+      </c>
+      <c r="L91" t="n">
+        <v>5770</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1.023292992280754</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1.012</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1.365843868772226</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.2839703666371027</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3.711777761890294</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.9648470258968647</v>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3312536923393893120</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>3312536927686011520</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>3312536923393893120</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>67.53644292906253</v>
+      </c>
+      <c r="E92" t="n">
+        <v>15.6381385358323</v>
+      </c>
+      <c r="F92" t="n">
+        <v>7.944008827209473</v>
+      </c>
+      <c r="G92" t="n">
+        <v>7.944008827209473</v>
+      </c>
+      <c r="H92" t="n">
+        <v>5.725773334503174</v>
+      </c>
+      <c r="I92" t="n">
+        <v>5.313418865203857</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.4123544692993164</v>
+      </c>
+      <c r="K92" t="n">
+        <v>21.33769931920589</v>
+      </c>
+      <c r="L92" t="n">
+        <v>5770</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1.023292992280754</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1.012</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1.365843868772226</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.3217393066198116</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4.205458838412121</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.9648470258968647</v>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Gaia DR3 1268325318000128</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1268325318000128</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>44.31282192447543</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.886934563606916</v>
+      </c>
+      <c r="F93" t="n">
+        <v>8.011133193969727</v>
+      </c>
+      <c r="G93" t="n">
+        <v>8.011133193969727</v>
+      </c>
+      <c r="H93" t="n">
+        <v>7.72388744354248</v>
+      </c>
+      <c r="I93" t="n">
+        <v>6.954372882843018</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.7695145606994629</v>
+      </c>
+      <c r="K93" t="n">
+        <v>20.88488339874121</v>
+      </c>
+      <c r="L93" t="n">
+        <v>5794.287109375</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="N93" t="n">
+        <v>2.013723850250244</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1.912816180574218</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.3351061021072578</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4.971900009758571</v>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>HD 18368</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Gaia DR3 1174513645233715584</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1174513645237833984</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>1174513645233715584</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1174513645237833984</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="D94" t="n">
+        <v>221.5652678486585</v>
+      </c>
+      <c r="E94" t="n">
+        <v>9.645560859432685</v>
+      </c>
+      <c r="F94" t="n">
+        <v>7.594826698303223</v>
+      </c>
+      <c r="G94" t="n">
+        <v>7.594826698303223</v>
+      </c>
+      <c r="H94" t="n">
+        <v>7.791135787963867</v>
+      </c>
+      <c r="I94" t="n">
+        <v>6.950729846954346</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.8404059410095215</v>
+      </c>
+      <c r="K94" t="n">
+        <v>22.86171618639112</v>
+      </c>
+      <c r="L94" t="n">
+        <v>5844.399</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.94155294</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1.3257118</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.2001735</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1.546687154711134</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.2821967161213998</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3.808765185588097</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.5446439001615057</v>
+      </c>
+      <c r="T94" t="n">
+        <v>4.2656</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>HD 130145</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>G1V</t>
+        </is>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>G1V</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Gaia DR3 1174513645233715584</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>1174513645233715584</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1174513645233715584</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
         <v>221.5652678486585</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E95" t="n">
         <v>9.645560859432685</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F95" t="n">
         <v>7.594826698303223</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G95" t="n">
         <v>7.594826698303223</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H95" t="n">
         <v>7.791135787963867</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I95" t="n">
         <v>6.950729846954346</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J95" t="n">
         <v>0.8404059410095215</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K95" t="n">
         <v>22.86171618639112</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L95" t="n">
         <v>5844.399</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M95" t="n">
         <v>0.94155294</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N95" t="n">
         <v>1.3257118</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O95" t="n">
         <v>1.2001735</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P95" t="n">
         <v>1.546687154711134</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q95" t="n">
         <v>0.2821967161213998</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R95" t="n">
         <v>3.808765185588097</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S95" t="n">
         <v>0.5446439001615057</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T95" t="n">
         <v>4.2656</v>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U95" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V95" t="inlineStr">
         <is>
           <t>HD 130145</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>G1V</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>G1V</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Gaia DR3 4858250264007576320</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>4858250268302005760</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>4858250264007576320</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>60.51645354770854</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-34.48223418502332</v>
+      </c>
+      <c r="F96" t="n">
+        <v>7.059163093566895</v>
+      </c>
+      <c r="G96" t="n">
+        <v>7.059163093566895</v>
+      </c>
+      <c r="H96" t="n">
+        <v>7.002360820770264</v>
+      </c>
+      <c r="I96" t="n">
+        <v>6.164117336273193</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.8382434844970703</v>
+      </c>
+      <c r="K96" t="n">
+        <v>21.65824485403931</v>
+      </c>
+      <c r="L96" t="n">
+        <v>5875.507</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1.0285591</v>
+      </c>
+      <c r="N96" t="n">
+        <v>2.4304204</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.7134289</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2.089753039797511</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.2231937112944107</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3.659758064563079</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.2044706547038306</v>
+      </c>
+      <c r="T96" t="n">
+        <v>4.1023</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>HD 25535</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Gaia DR3 4858250264007576320</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>4858250264007576320</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>4858250264007576320</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>60.51645354770854</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-34.48223418502332</v>
+      </c>
+      <c r="F97" t="n">
+        <v>7.059163093566895</v>
+      </c>
+      <c r="G97" t="n">
+        <v>7.059163093566895</v>
+      </c>
+      <c r="H97" t="n">
+        <v>7.002360820770264</v>
+      </c>
+      <c r="I97" t="n">
+        <v>6.164117336273193</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.8382434844970703</v>
+      </c>
+      <c r="K97" t="n">
+        <v>21.65824485403931</v>
+      </c>
+      <c r="L97" t="n">
+        <v>5875.507</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1.0285591</v>
+      </c>
+      <c r="N97" t="n">
+        <v>2.4304204</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1.7134289</v>
+      </c>
+      <c r="P97" t="n">
+        <v>2.089753039797511</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.2231937112944107</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3.659758064563079</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.2044706547038306</v>
+      </c>
+      <c r="T97" t="n">
+        <v>4.1023</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>HD 25535</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Gaia DR3 2739059700183271424</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2739059700183271424</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2739059700183271424</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0.6969893948977539</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.129328446521788</v>
+      </c>
+      <c r="F98" t="n">
+        <v>8.972273826599121</v>
+      </c>
+      <c r="G98" t="n">
+        <v>8.972273826599121</v>
+      </c>
+      <c r="H98" t="n">
+        <v>7.701591491699219</v>
+      </c>
+      <c r="K98" t="n">
+        <v>23.30923025364912</v>
+      </c>
+      <c r="L98" t="n">
+        <v>5888.4365234375</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N98" t="n">
+        <v>2.488857269287109</v>
+      </c>
+      <c r="P98" t="n">
+        <v>2.112863677224488</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.5413406573705565</v>
+      </c>
+      <c r="R98" t="n">
+        <v>9.355284465312826</v>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>HD 225028</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Gaia DR3 2739059700183271424</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2739059700184753280</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2739059700183271424</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0.6969893948977539</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.129328446521788</v>
+      </c>
+      <c r="F99" t="n">
+        <v>8.972273826599121</v>
+      </c>
+      <c r="G99" t="n">
+        <v>8.972273826599121</v>
+      </c>
+      <c r="H99" t="n">
+        <v>7.462995529174805</v>
+      </c>
+      <c r="I99" t="n">
+        <v>6.632507801055908</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.8304877281188965</v>
+      </c>
+      <c r="K99" t="n">
+        <v>23.30923025364912</v>
+      </c>
+      <c r="L99" t="n">
+        <v>5888.4365234375</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N99" t="n">
+        <v>2.488857269287109</v>
+      </c>
+      <c r="P99" t="n">
+        <v>2.112863677224488</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.5413406573705565</v>
+      </c>
+      <c r="R99" t="n">
+        <v>9.355284465312826</v>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>HD 225028</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3311221224583178368</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>3311221224584455936</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>3311221224583178368</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>65.68458418346766</v>
+      </c>
+      <c r="E100" t="n">
+        <v>15.05603438336954</v>
+      </c>
+      <c r="F100" t="n">
+        <v>7.138456344604492</v>
+      </c>
+      <c r="G100" t="n">
+        <v>7.138456344604492</v>
+      </c>
+      <c r="H100" t="n">
+        <v>7.188841819763184</v>
+      </c>
+      <c r="I100" t="n">
+        <v>6.430546283721924</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.7582955360412598</v>
+      </c>
+      <c r="K100" t="n">
+        <v>21.18773295114552</v>
+      </c>
+      <c r="L100" t="n">
+        <v>5899.541</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1.0784103</v>
+      </c>
+      <c r="N100" t="n">
+        <v>2.4605875</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1.5010539</v>
+      </c>
+      <c r="P100" t="n">
+        <v>2.099242840318428</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.2336459652214392</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3.931787261369827</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0.31885641989801</v>
+      </c>
+      <c r="T100" t="n">
+        <v>4.1055</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>HD 27691</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>SB*</t>
+        </is>
+      </c>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="AA100" t="inlineStr">
+        <is>
+          <t>F8V</t>
+        </is>
+      </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>F8V</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3311221224583178368</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>3311221224583178368</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>3311221224583178368</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>65.68458418346766</v>
+      </c>
+      <c r="E101" t="n">
+        <v>15.05603438336954</v>
+      </c>
+      <c r="F101" t="n">
+        <v>7.138456344604492</v>
+      </c>
+      <c r="G101" t="n">
+        <v>7.138456344604492</v>
+      </c>
+      <c r="H101" t="n">
+        <v>7.188841819763184</v>
+      </c>
+      <c r="I101" t="n">
+        <v>6.430546283721924</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.7582955360412598</v>
+      </c>
+      <c r="K101" t="n">
+        <v>21.18773295114552</v>
+      </c>
+      <c r="L101" t="n">
+        <v>5899.541</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1.0784103</v>
+      </c>
+      <c r="N101" t="n">
+        <v>2.4605875</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1.5010539</v>
+      </c>
+      <c r="P101" t="n">
+        <v>2.099242840318428</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.2336459652214392</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3.931787261369827</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.31885641989801</v>
+      </c>
+      <c r="T101" t="n">
+        <v>4.1055</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>HD 27691</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>SB*</t>
+        </is>
+      </c>
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="AA101" t="inlineStr">
+        <is>
+          <t>F8V</t>
+        </is>
+      </c>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>F8V</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3667727974285389184</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>3667727974285389184</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>213.8298400396794</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3.131611389300824</v>
+      </c>
+      <c r="F102" t="n">
+        <v>7.581280708312988</v>
+      </c>
+      <c r="G102" t="n">
+        <v>7.581280708312988</v>
+      </c>
+      <c r="H102" t="n">
+        <v>7.216891765594482</v>
+      </c>
+      <c r="I102" t="n">
+        <v>6.500969886779785</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.7159218788146973</v>
+      </c>
+      <c r="K102" t="n">
+        <v>24.23333351688585</v>
+      </c>
+      <c r="L102" t="n">
+        <v>5902.009765625</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>2.376839876174927</v>
+      </c>
+      <c r="P102" t="n">
+        <v>2.062862772699709</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.2867698644939946</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4.606570033551536</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>HD 124757</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5848710168188419456</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>5848710168188419456</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>5848710168188419456</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>223.5416777607515</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-66.42085581265954</v>
+      </c>
+      <c r="F103" t="n">
+        <v>7.847100257873535</v>
+      </c>
+      <c r="G103" t="n">
+        <v>7.847100257873535</v>
+      </c>
+      <c r="H103" t="n">
+        <v>7.358569622039795</v>
+      </c>
+      <c r="I103" t="n">
+        <v>6.507976055145264</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.8505935668945312</v>
+      </c>
+      <c r="K103" t="n">
+        <v>25.41693756297704</v>
+      </c>
+      <c r="L103" t="n">
+        <v>5915.6171875</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N103" t="n">
+        <v>2.55858588218689</v>
+      </c>
+      <c r="P103" t="n">
+        <v>2.138301975984334</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.3258002991266497</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5.354958817516538</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>HD 130940</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3205679721908034688</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>3205679721908034688</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>3205679721908034688</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>66.42464199150152</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-2.232410658966647</v>
+      </c>
+      <c r="F104" t="n">
+        <v>7.28282642364502</v>
+      </c>
+      <c r="G104" t="n">
+        <v>7.28282642364502</v>
+      </c>
+      <c r="H104" t="n">
+        <v>7.401397228240967</v>
+      </c>
+      <c r="I104" t="n">
+        <v>6.632630825042725</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.7687664031982422</v>
+      </c>
+      <c r="K104" t="n">
+        <v>24.60338393631822</v>
+      </c>
+      <c r="L104" t="n">
+        <v>5915.6171875</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1.887991428375244</v>
+      </c>
+      <c r="P104" t="n">
+        <v>1.836830350691385</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.2512445859001445</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3.902422639723919</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>HD 28072</t>
+        </is>
+      </c>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5848710168188419456</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>5848710168215059584</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>5848710168188419456</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>223.5416777607515</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-66.42085581265954</v>
+      </c>
+      <c r="F105" t="n">
+        <v>7.847100257873535</v>
+      </c>
+      <c r="G105" t="n">
+        <v>7.847100257873535</v>
+      </c>
+      <c r="H105" t="n">
+        <v>7.358569622039795</v>
+      </c>
+      <c r="I105" t="n">
+        <v>6.507976055145264</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.8505935668945312</v>
+      </c>
+      <c r="K105" t="n">
+        <v>25.41693756297704</v>
+      </c>
+      <c r="L105" t="n">
+        <v>5915.6171875</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2.55858588218689</v>
+      </c>
+      <c r="P105" t="n">
+        <v>2.138301975984334</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.3258002991266497</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5.354958817516538</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>HD 130940</t>
+        </is>
+      </c>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Gaia DR2 6647851265236712448</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>6647851265236712448</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>273.7862344274716</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-57.85491178142339</v>
+      </c>
+      <c r="F106" t="n">
+        <v>8.048060417175293</v>
+      </c>
+      <c r="G106" t="n">
+        <v>8.048060417175293</v>
+      </c>
+      <c r="H106" t="n">
+        <v>8.263900756835938</v>
+      </c>
+      <c r="I106" t="n">
+        <v>7.439709663391113</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.8241910934448242</v>
+      </c>
+      <c r="K106" t="n">
+        <v>20.02267953299342</v>
+      </c>
+      <c r="L106" t="n">
+        <v>5951</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1.1109587</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0.9915662</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1.40565327186643</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.3621965139831644</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4.581559625276657</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0.9334181671059584</v>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>HD 166653</t>
+        </is>
+      </c>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Gaia DR3 2019550767153854080</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2019550767177606016</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2019550767153854080</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>293.3591550413757</v>
+      </c>
+      <c r="E107" t="n">
+        <v>23.49786033326636</v>
+      </c>
+      <c r="F107" t="n">
+        <v>11.95027923583984</v>
+      </c>
+      <c r="G107" t="n">
+        <v>11.95027923583984</v>
+      </c>
+      <c r="H107" t="n">
+        <v>7.998145580291748</v>
+      </c>
+      <c r="I107" t="n">
+        <v>7.178745269775391</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.8194003105163574</v>
+      </c>
+      <c r="K107" t="n">
+        <v>21.33710135631854</v>
+      </c>
+      <c r="L107" t="n">
+        <v>5956.62255859375</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1.419057726860046</v>
+      </c>
+      <c r="P107" t="n">
+        <v>1.588051476674986</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>2.189283007891276</v>
+      </c>
+      <c r="R107" t="n">
+        <v>32.65639226610858</v>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>HD 184403</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5650153795716877568</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>5650153825784353280</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>5650153795716877568</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>137.1509137769664</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-25.83897499617422</v>
+      </c>
+      <c r="F108" t="n">
+        <v>11.61914443969727</v>
+      </c>
+      <c r="G108" t="n">
+        <v>11.61914443969727</v>
+      </c>
+      <c r="H108" t="n">
+        <v>6.943893432617188</v>
+      </c>
+      <c r="I108" t="n">
+        <v>6.195503234863281</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.7483901977539062</v>
+      </c>
+      <c r="K108" t="n">
+        <v>22.40026209270729</v>
+      </c>
+      <c r="L108" t="n">
+        <v>5956.62255859375</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3.311311006546021</v>
+      </c>
+      <c r="P108" t="n">
+        <v>2.425853282843025</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>1.879641162273541</v>
+      </c>
+      <c r="R108" t="n">
+        <v>34.18589052068774</v>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>HD 78643</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>GJ 9287</t>
+        </is>
+      </c>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Gaia DR3 6726054197284153600</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>6726054201610430976</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>6726054197284153600</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>273.2464088394459</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-39.16220734095587</v>
+      </c>
+      <c r="F109" t="n">
+        <v>10.25693988800049</v>
+      </c>
+      <c r="G109" t="n">
+        <v>10.25693988800049</v>
+      </c>
+      <c r="H109" t="n">
+        <v>7.446920394897461</v>
+      </c>
+      <c r="I109" t="n">
+        <v>6.678154468536377</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.768765926361084</v>
+      </c>
+      <c r="K109" t="n">
+        <v>20.11328503429325</v>
+      </c>
+      <c r="L109" t="n">
+        <v>5970.35302734375</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1.905460476875305</v>
+      </c>
+      <c r="P109" t="n">
+        <v>1.838496988339135</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>1.008920141083191</v>
+      </c>
+      <c r="R109" t="n">
+        <v>15.75276764380452</v>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>HD 166553</t>
+        </is>
+      </c>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5398195002495809664</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>5398195002495815936</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>5398195002495809664</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>173.2135471067963</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-36.20916438302526</v>
+      </c>
+      <c r="F110" t="n">
+        <v>11.3557767868042</v>
+      </c>
+      <c r="G110" t="n">
+        <v>11.3557767868042</v>
+      </c>
+      <c r="H110" t="n">
+        <v>6.849820137023926</v>
+      </c>
+      <c r="I110" t="n">
+        <v>6.086069107055664</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.7637510299682617</v>
+      </c>
+      <c r="K110" t="n">
+        <v>25.86442311427617</v>
+      </c>
+      <c r="L110" t="n">
+        <v>5997.91259765625</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N110" t="n">
+        <v>2.398832559585571</v>
+      </c>
+      <c r="P110" t="n">
+        <v>2.05901537386258</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>1.690626989451153</v>
+      </c>
+      <c r="R110" t="n">
+        <v>28.58655769239984</v>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>HD 100395</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Gaia DR3 1271209611223823232</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1271209611223823232</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>1271209611223823232</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>229.5848559040759</v>
+      </c>
+      <c r="E111" t="n">
+        <v>26.84068292663587</v>
+      </c>
+      <c r="F111" t="n">
+        <v>7.179744720458984</v>
+      </c>
+      <c r="G111" t="n">
+        <v>7.179744720458984</v>
+      </c>
+      <c r="H111" t="n">
+        <v>7.109145641326904</v>
+      </c>
+      <c r="I111" t="n">
+        <v>6.46183443069458</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.6473112106323242</v>
+      </c>
+      <c r="K111" t="n">
+        <v>27.61501915850227</v>
+      </c>
+      <c r="L111" t="n">
+        <v>6030.056</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1.1314548</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1.2947627</v>
+      </c>
+      <c r="O111" t="n">
+        <v>1.0180246</v>
+      </c>
+      <c r="P111" t="n">
+        <v>1.509463447194474</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.4563857059124538</v>
+      </c>
+      <c r="R111" t="n">
+        <v>6.670705637593006</v>
+      </c>
+      <c r="S111" t="n">
+        <v>1.072413793665717</v>
+      </c>
+      <c r="T111" t="n">
+        <v>4.4131</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>HD 136176</t>
+        </is>
+      </c>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Gaia DR3 1271209611223823232</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1271209615518148736</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1271209611223823232</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>229.5848559040759</v>
+      </c>
+      <c r="E112" t="n">
+        <v>26.84068292663587</v>
+      </c>
+      <c r="F112" t="n">
+        <v>7.179744720458984</v>
+      </c>
+      <c r="G112" t="n">
+        <v>7.179744720458984</v>
+      </c>
+      <c r="H112" t="n">
+        <v>7.109145641326904</v>
+      </c>
+      <c r="I112" t="n">
+        <v>6.46183443069458</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.6473112106323242</v>
+      </c>
+      <c r="K112" t="n">
+        <v>27.61501915850227</v>
+      </c>
+      <c r="L112" t="n">
+        <v>6030.056</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1.1314548</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1.2947627</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1.0180246</v>
+      </c>
+      <c r="P112" t="n">
+        <v>1.509463447194474</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.4563857059124538</v>
+      </c>
+      <c r="R112" t="n">
+        <v>6.670705637593006</v>
+      </c>
+      <c r="S112" t="n">
+        <v>1.072413793665717</v>
+      </c>
+      <c r="T112" t="n">
+        <v>4.4131</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>HD 136176</t>
+        </is>
+      </c>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Gaia DR3 4511848202261111424</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>4511848202267498624</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>4511848202261111424</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>278.9719665659248</v>
+      </c>
+      <c r="E113" t="n">
+        <v>16.97536453235658</v>
+      </c>
+      <c r="F113" t="n">
+        <v>6.797068119049072</v>
+      </c>
+      <c r="G113" t="n">
+        <v>6.797068119049072</v>
+      </c>
+      <c r="H113" t="n">
+        <v>6.960119724273682</v>
+      </c>
+      <c r="I113" t="n">
+        <v>6.163650512695312</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.7964692115783691</v>
+      </c>
+      <c r="K113" t="n">
+        <v>29.32805227625257</v>
+      </c>
+      <c r="L113" t="n">
+        <v>6042.6187</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1.086339</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1.6590961</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1.175294</v>
+      </c>
+      <c r="P113" t="n">
+        <v>1.707263101844779</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0.4519026201353144</v>
+      </c>
+      <c r="R113" t="n">
+        <v>6.883160510234592</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0.6691535927062605</v>
+      </c>
+      <c r="T113" t="n">
+        <v>4.2023</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>HD 171746</t>
+        </is>
+      </c>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="Z113" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="AA113" t="inlineStr">
+        <is>
+          <t>G2Ve:</t>
+        </is>
+      </c>
+      <c r="AB113" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Gaia DR3 4511848202261111424</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>4511848202261111424</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>4511848202261111424</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>278.9719665659248</v>
+      </c>
+      <c r="E114" t="n">
+        <v>16.97536453235658</v>
+      </c>
+      <c r="F114" t="n">
+        <v>6.797068119049072</v>
+      </c>
+      <c r="G114" t="n">
+        <v>6.797068119049072</v>
+      </c>
+      <c r="H114" t="n">
+        <v>6.960119724273682</v>
+      </c>
+      <c r="I114" t="n">
+        <v>6.163650512695312</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.7964692115783691</v>
+      </c>
+      <c r="K114" t="n">
+        <v>29.32805227625257</v>
+      </c>
+      <c r="L114" t="n">
+        <v>6042.6187</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1.086339</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1.6590961</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1.175294</v>
+      </c>
+      <c r="P114" t="n">
+        <v>1.707263101844779</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.4519026201353144</v>
+      </c>
+      <c r="R114" t="n">
+        <v>6.883160510234592</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0.6691535927062605</v>
+      </c>
+      <c r="T114" t="n">
+        <v>4.2023</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>HD 171746</t>
+        </is>
+      </c>
+      <c r="Y114" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="Z114" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="AA114" t="inlineStr">
+        <is>
+          <t>G2Ve:</t>
+        </is>
+      </c>
+      <c r="AB114" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5530317851619425024</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>5530317851619425024</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>5530317851619425024</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>129.8411782106315</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-36.60643489483677</v>
+      </c>
+      <c r="F115" t="n">
+        <v>6.18516731262207</v>
+      </c>
+      <c r="G115" t="n">
+        <v>6.18516731262207</v>
+      </c>
+      <c r="H115" t="n">
+        <v>6.230806827545166</v>
+      </c>
+      <c r="I115" t="n">
+        <v>5.661858558654785</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.5689482688903809</v>
+      </c>
+      <c r="K115" t="n">
+        <v>24.40928321182597</v>
+      </c>
+      <c r="L115" t="n">
+        <v>6081</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N115" t="n">
+        <v>4.50793</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1.5255</v>
+      </c>
+      <c r="P115" t="n">
+        <v>2.807049799611435</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.4967385441251804</v>
+      </c>
+      <c r="R115" t="n">
+        <v>10.8550935494895</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0.3830912851486728</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>HD 73900</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>42455</t>
+        </is>
+      </c>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="AA115" t="inlineStr">
+        <is>
+          <t>F3/5V</t>
+        </is>
+      </c>
+      <c r="AB115" t="inlineStr">
+        <is>
+          <t>F3V and F5V</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Gaia DR3 883596170039715072</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>883596170039715072</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>108.2043752449056</v>
+      </c>
+      <c r="E116" t="n">
+        <v>27.22457430182181</v>
+      </c>
+      <c r="F116" t="n">
+        <v>7.095435619354248</v>
+      </c>
+      <c r="G116" t="n">
+        <v>7.095435619354248</v>
+      </c>
+      <c r="H116" t="n">
+        <v>6.60823392868042</v>
+      </c>
+      <c r="I116" t="n">
+        <v>6.015291690826416</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.5929422378540039</v>
+      </c>
+      <c r="K116" t="n">
+        <v>21.54103392592969</v>
+      </c>
+      <c r="L116" t="n">
+        <v>6208.68994140625</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N116" t="n">
+        <v>4.487453460693359</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1.221</v>
+      </c>
+      <c r="P116" t="n">
+        <v>2.777506139488123</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>1.525842288769654</v>
+      </c>
+      <c r="R116" t="n">
+        <v>32.67730684867652</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0.7251484773232564</v>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>HD 55130</t>
+        </is>
+      </c>
+      <c r="Y116" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="AA116" t="inlineStr">
+        <is>
+          <t>F8V</t>
+        </is>
+      </c>
+      <c r="AB116" t="inlineStr">
+        <is>
+          <t>F8V</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3028617457455184768</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>3028617461760208128</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>3028617457455184768</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>112.3405577556609</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-14.99927860034898</v>
+      </c>
+      <c r="F117" t="n">
+        <v>7.025841595277786</v>
+      </c>
+      <c r="G117" t="n">
+        <v>7.456757545471191</v>
+      </c>
+      <c r="H117" t="n">
+        <v>7.254631042480469</v>
+      </c>
+      <c r="I117" t="n">
+        <v>6.186352729797363</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.068278312683105</v>
+      </c>
+      <c r="K117" t="n">
+        <v>27.38412894014579</v>
+      </c>
+      <c r="L117" t="n">
+        <v>6237.349609375</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N117" t="n">
+        <v>3.837072849273682</v>
+      </c>
+      <c r="P117" t="n">
+        <v>2.563659224722612</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>1.644101667160682</v>
+      </c>
+      <c r="R117" t="n">
+        <v>31.02019446830899</v>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>HD 59438</t>
+        </is>
+      </c>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="AA117" t="inlineStr">
+        <is>
+          <t>F8:</t>
+        </is>
+      </c>
+      <c r="AB117" t="inlineStr">
+        <is>
+          <t>F8</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Gaia DR3 3028617457455184768</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>3028617457455184768</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>3028617457455184768</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>112.3405577556609</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-14.99927860034898</v>
+      </c>
+      <c r="F118" t="n">
+        <v>7.025841595277786</v>
+      </c>
+      <c r="G118" t="n">
+        <v>7.456757545471191</v>
+      </c>
+      <c r="H118" t="n">
+        <v>7.254631042480469</v>
+      </c>
+      <c r="I118" t="n">
+        <v>6.186352729797363</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.068278312683105</v>
+      </c>
+      <c r="K118" t="n">
+        <v>27.38412894014579</v>
+      </c>
+      <c r="L118" t="n">
+        <v>6237.349609375</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N118" t="n">
+        <v>3.837072849273682</v>
+      </c>
+      <c r="P118" t="n">
+        <v>2.563659224722612</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>1.644101667160682</v>
+      </c>
+      <c r="R118" t="n">
+        <v>31.02019446830899</v>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>HD 59438</t>
+        </is>
+      </c>
+      <c r="Y118" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+      <c r="AA118" t="inlineStr">
+        <is>
+          <t>F8:</t>
+        </is>
+      </c>
+      <c r="AB118" t="inlineStr">
+        <is>
+          <t>F8</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5830704393965928704</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>5830704393965928704</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>5830704393965928704</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>250.2114150305752</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-60.44641402757556</v>
+      </c>
+      <c r="F119" t="n">
+        <v>8.326564431867599</v>
+      </c>
+      <c r="G119" t="n">
+        <v>8.758694648742676</v>
+      </c>
+      <c r="H119" t="n">
+        <v>8.562043190002441</v>
+      </c>
+      <c r="I119" t="n">
+        <v>7.225009918212891</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.337033271789551</v>
+      </c>
+      <c r="K119" t="n">
+        <v>31.37851183424539</v>
+      </c>
+      <c r="L119" t="n">
+        <v>6266.1376953125</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N119" t="n">
+        <v>2.72897744178772</v>
+      </c>
+      <c r="P119" t="n">
+        <v>2.158081180580961</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>3.296715403969047</v>
+      </c>
+      <c r="R119" t="n">
+        <v>59.33954225643274</v>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>HD 149837</t>
+        </is>
+      </c>
+      <c r="Y119" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5830704393965928704</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>5830704393979103488</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>5830704393965928704</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>250.2114150305752</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-60.44641402757556</v>
+      </c>
+      <c r="F120" t="n">
+        <v>8.326564431867599</v>
+      </c>
+      <c r="G120" t="n">
+        <v>8.758694648742676</v>
+      </c>
+      <c r="H120" t="n">
+        <v>8.562043190002441</v>
+      </c>
+      <c r="I120" t="n">
+        <v>7.225009918212891</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.337033271789551</v>
+      </c>
+      <c r="K120" t="n">
+        <v>31.37851183424539</v>
+      </c>
+      <c r="L120" t="n">
+        <v>6266.1376953125</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2.72897744178772</v>
+      </c>
+      <c r="P120" t="n">
+        <v>2.158081180580961</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>3.296715403969047</v>
+      </c>
+      <c r="R120" t="n">
+        <v>59.33954225643274</v>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>HD 149837</t>
+        </is>
+      </c>
+      <c r="Y120" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5468409364073657856</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>5468409368370405888</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>5468409364073657856</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>159.0184347622677</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-26.67561364221422</v>
+      </c>
+      <c r="F121" t="n">
+        <v>7.597651481628418</v>
+      </c>
+      <c r="G121" t="n">
+        <v>7.597651481628418</v>
+      </c>
+      <c r="H121" t="n">
+        <v>7.402126312255859</v>
+      </c>
+      <c r="I121" t="n">
+        <v>6.536417007446289</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.8657093048095703</v>
+      </c>
+      <c r="K121" t="n">
+        <v>23.0878013088207</v>
+      </c>
+      <c r="L121" t="n">
+        <v>6309.57275390625</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N121" t="n">
+        <v>5.011872291564941</v>
+      </c>
+      <c r="P121" t="n">
+        <v>2.916646054502738</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>2.684221251446723</v>
+      </c>
+      <c r="R121" t="n">
+        <v>57.55475540904943</v>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>HD 91881</t>
+        </is>
+      </c>
+      <c r="Y121" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Gaia DR3 5468409364073657856</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>5468409364073657856</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>5468409364073657856</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>159.0184347622677</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-26.67561364221422</v>
+      </c>
+      <c r="F122" t="n">
+        <v>7.597651481628418</v>
+      </c>
+      <c r="G122" t="n">
+        <v>7.597651481628418</v>
+      </c>
+      <c r="H122" t="n">
+        <v>7.402126312255859</v>
+      </c>
+      <c r="I122" t="n">
+        <v>6.536417007446289</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.8657093048095703</v>
+      </c>
+      <c r="K122" t="n">
+        <v>23.0878013088207</v>
+      </c>
+      <c r="L122" t="n">
+        <v>6309.57275390625</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N122" t="n">
+        <v>5.011872291564941</v>
+      </c>
+      <c r="P122" t="n">
+        <v>2.916646054502738</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>2.684221251446723</v>
+      </c>
+      <c r="R122" t="n">
+        <v>57.55475540904943</v>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>HD 91881</t>
+        </is>
+      </c>
+      <c r="Y122" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>

--- a/results/stars_with_bright_neighbors.xlsx
+++ b/results/stars_with_bright_neighbors.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +50,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +75,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -427,7 +440,7 @@
   </sheetPr>
   <dimension ref="A1:AB122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -10536,6 +10549,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>